--- a/BackTest/2019-11-01 BackTest ZIL.xlsx
+++ b/BackTest/2019-11-01 BackTest ZIL.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.2999999999999989</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-80.00000000000036</v>
+      </c>
       <c r="L12" t="n">
         <v>7.386999999999999</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.3099999999999987</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-86.6666666666669</v>
+      </c>
       <c r="L13" t="n">
         <v>7.361999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.3099999999999987</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-86.6666666666669</v>
+      </c>
       <c r="L14" t="n">
         <v>7.335999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.339999999999999</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-69.69696969696973</v>
+      </c>
       <c r="L15" t="n">
         <v>7.313</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.339999999999999</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-69.69696969696973</v>
+      </c>
       <c r="L16" t="n">
         <v>7.290000000000001</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.339999999999999</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-69.69696969696973</v>
+      </c>
       <c r="L17" t="n">
         <v>7.267000000000001</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.4599999999999991</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-20.93023255813952</v>
+      </c>
       <c r="L18" t="n">
         <v>7.256</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.4699999999999989</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-23.80952380952373</v>
+      </c>
       <c r="L19" t="n">
         <v>7.248</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.5299999999999985</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>33.33333333333315</v>
+      </c>
       <c r="L20" t="n">
         <v>7.244</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.5499999999999989</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>92.00000000000017</v>
+      </c>
       <c r="L21" t="n">
         <v>7.257</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.5699999999999994</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>84.6153846153843</v>
+      </c>
       <c r="L22" t="n">
         <v>7.278</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>-3.448275862068892</v>
+        <v>85.18518518518492</v>
       </c>
       <c r="L23" t="n">
         <v>7.301</v>
@@ -1466,7 +1488,7 @@
         <v>0.6099999999999994</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>85.18518518518486</v>
       </c>
       <c r="L24" t="n">
         <v>7.327</v>
@@ -1515,7 +1537,7 @@
         <v>0.6399999999999988</v>
       </c>
       <c r="K25" t="n">
-        <v>-4.761904761904668</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L25" t="n">
         <v>7.347</v>
@@ -1564,7 +1586,7 @@
         <v>0.6399999999999988</v>
       </c>
       <c r="K26" t="n">
-        <v>-4.761904761904668</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L26" t="n">
         <v>7.367</v>
@@ -1613,7 +1635,7 @@
         <v>0.7399999999999984</v>
       </c>
       <c r="K27" t="n">
-        <v>9.589041095890467</v>
+        <v>64.28571428571433</v>
       </c>
       <c r="L27" t="n">
         <v>7.397</v>
@@ -1666,7 +1688,7 @@
         <v>0.7899999999999983</v>
       </c>
       <c r="K28" t="n">
-        <v>2.564102564102628</v>
+        <v>37.50000000000011</v>
       </c>
       <c r="L28" t="n">
         <v>7.409999999999999</v>
@@ -1721,7 +1743,7 @@
         <v>0.8399999999999981</v>
       </c>
       <c r="K29" t="n">
-        <v>11.11111111111111</v>
+        <v>35.48387096774208</v>
       </c>
       <c r="L29" t="n">
         <v>7.427</v>
@@ -1776,7 +1798,7 @@
         <v>0.8899999999999979</v>
       </c>
       <c r="K30" t="n">
-        <v>14.28571428571431</v>
+        <v>41.17647058823533</v>
       </c>
       <c r="L30" t="n">
         <v>7.443</v>
@@ -1831,7 +1853,7 @@
         <v>0.9499999999999984</v>
       </c>
       <c r="K31" t="n">
-        <v>44.00000000000001</v>
+        <v>57.89473684210559</v>
       </c>
       <c r="L31" t="n">
         <v>7.462999999999999</v>
@@ -1888,7 +1910,7 @@
         <v>0.9599999999999991</v>
       </c>
       <c r="K32" t="n">
-        <v>63.63636363636361</v>
+        <v>52.63157894736838</v>
       </c>
       <c r="L32" t="n">
         <v>7.483999999999999</v>
@@ -1945,7 +1967,7 @@
         <v>0.9699999999999998</v>
       </c>
       <c r="K33" t="n">
-        <v>66.66666666666661</v>
+        <v>50.00000000000012</v>
       </c>
       <c r="L33" t="n">
         <v>7.504999999999998</v>
@@ -2002,7 +2024,7 @@
         <v>0.9699999999999998</v>
       </c>
       <c r="K34" t="n">
-        <v>66.66666666666661</v>
+        <v>63.63636363636343</v>
       </c>
       <c r="L34" t="n">
         <v>7.522999999999999</v>
@@ -2059,7 +2081,7 @@
         <v>1.05</v>
       </c>
       <c r="K35" t="n">
-        <v>69.01408450704221</v>
+        <v>70.731707317073</v>
       </c>
       <c r="L35" t="n">
         <v>7.551999999999998</v>
@@ -2116,7 +2138,7 @@
         <v>1.06</v>
       </c>
       <c r="K36" t="n">
-        <v>69.44444444444439</v>
+        <v>62.49999999999982</v>
       </c>
       <c r="L36" t="n">
         <v>7.581999999999998</v>
@@ -2173,7 +2195,7 @@
         <v>1.109999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>58.44155844155843</v>
+        <v>62.49999999999982</v>
       </c>
       <c r="L37" t="n">
         <v>7.596999999999999</v>
@@ -2224,7 +2246,7 @@
         <v>1.129999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>52.2388059701492</v>
+        <v>58.6206896551722</v>
       </c>
       <c r="L38" t="n">
         <v>7.618999999999998</v>
@@ -2275,7 +2297,7 @@
         <v>1.199999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>36.98630136986294</v>
+        <v>16.12903225806439</v>
       </c>
       <c r="L39" t="n">
         <v>7.628999999999998</v>
@@ -2326,7 +2348,7 @@
         <v>1.299999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>14.28571428571432</v>
+        <v>-31.42857142857147</v>
       </c>
       <c r="L40" t="n">
         <v>7.623999999999998</v>
@@ -2377,7 +2399,7 @@
         <v>1.399999999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>-1.17647058823527</v>
+        <v>-45.45454545454534</v>
       </c>
       <c r="L41" t="n">
         <v>7.602999999999999</v>
@@ -2434,7 +2456,7 @@
         <v>1.499999999999998</v>
       </c>
       <c r="K42" t="n">
-        <v>11.82795698924736</v>
+        <v>-20.75471698113219</v>
       </c>
       <c r="L42" t="n">
         <v>7.592999999999999</v>
@@ -2493,7 +2515,7 @@
         <v>1.599999999999998</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-33.33333333333343</v>
       </c>
       <c r="L43" t="n">
         <v>7.572</v>
@@ -2554,7 +2576,7 @@
         <v>1.609999999999998</v>
       </c>
       <c r="K44" t="n">
-        <v>-1.999999999999961</v>
+        <v>-50.00000000000023</v>
       </c>
       <c r="L44" t="n">
         <v>7.552</v>
@@ -2613,7 +2635,7 @@
         <v>1.609999999999998</v>
       </c>
       <c r="K45" t="n">
-        <v>1.030927835051526</v>
+        <v>-52.72727272727293</v>
       </c>
       <c r="L45" t="n">
         <v>7.523999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>1.649999999999998</v>
       </c>
       <c r="K46" t="n">
-        <v>4.950495049504938</v>
+        <v>-37.03703703703719</v>
       </c>
       <c r="L46" t="n">
         <v>7.499</v>
@@ -2739,7 +2761,7 @@
         <v>1.699999999999998</v>
       </c>
       <c r="K47" t="n">
-        <v>-10.41666666666664</v>
+        <v>-47.36842105263162</v>
       </c>
       <c r="L47" t="n">
         <v>7.473999999999999</v>
@@ -2802,7 +2824,7 @@
         <v>1.769999999999997</v>
       </c>
       <c r="K48" t="n">
-        <v>2.040816326530571</v>
+        <v>-22.80701754385973</v>
       </c>
       <c r="L48" t="n">
         <v>7.453999999999999</v>
@@ -2865,7 +2887,7 @@
         <v>1.849999999999997</v>
       </c>
       <c r="K49" t="n">
-        <v>-10.89108910891093</v>
+        <v>-20.00000000000013</v>
       </c>
       <c r="L49" t="n">
         <v>7.433</v>
@@ -2928,7 +2950,7 @@
         <v>2.009999999999996</v>
       </c>
       <c r="K50" t="n">
-        <v>-28.57142857142856</v>
+        <v>-27.86885245901649</v>
       </c>
       <c r="L50" t="n">
         <v>7.406000000000001</v>
@@ -2989,7 +3011,7 @@
         <v>2.089999999999995</v>
       </c>
       <c r="K51" t="n">
-        <v>-26.31578947368434</v>
+        <v>-32.20338983050869</v>
       </c>
       <c r="L51" t="n">
         <v>7.397</v>
@@ -3048,7 +3070,7 @@
         <v>2.099999999999995</v>
       </c>
       <c r="K52" t="n">
-        <v>-26.31578947368429</v>
+        <v>-20.00000000000021</v>
       </c>
       <c r="L52" t="n">
         <v>7.377</v>
@@ -3111,7 +3133,7 @@
         <v>2.159999999999995</v>
       </c>
       <c r="K53" t="n">
-        <v>-31.09243697479005</v>
+        <v>-30.90909090909106</v>
       </c>
       <c r="L53" t="n">
         <v>7.360999999999999</v>
@@ -3174,7 +3196,7 @@
         <v>2.159999999999995</v>
       </c>
       <c r="K54" t="n">
-        <v>-31.09243697479005</v>
+        <v>-30.90909090909106</v>
       </c>
       <c r="L54" t="n">
         <v>7.343999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>2.319999999999995</v>
       </c>
       <c r="K55" t="n">
-        <v>-22.83464566929143</v>
+        <v>-7.462686567164183</v>
       </c>
       <c r="L55" t="n">
         <v>7.342999999999999</v>
@@ -3300,7 +3322,7 @@
         <v>2.319999999999995</v>
       </c>
       <c r="K56" t="n">
-        <v>-23.80952380952388</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>7.337999999999999</v>
@@ -3363,7 +3385,7 @@
         <v>2.319999999999995</v>
       </c>
       <c r="K57" t="n">
-        <v>-20.66115702479346</v>
+        <v>-12.72727272727266</v>
       </c>
       <c r="L57" t="n">
         <v>7.337999999999999</v>
@@ -3426,7 +3448,7 @@
         <v>2.329999999999995</v>
       </c>
       <c r="K58" t="n">
-        <v>-21.66666666666672</v>
+        <v>4.166666666666782</v>
       </c>
       <c r="L58" t="n">
         <v>7.331999999999999</v>
@@ -3489,7 +3511,7 @@
         <v>2.329999999999995</v>
       </c>
       <c r="K59" t="n">
-        <v>-16.81415929203542</v>
+        <v>56.25000000000018</v>
       </c>
       <c r="L59" t="n">
         <v>7.333999999999999</v>
@@ -3552,7 +3574,7 @@
         <v>2.329999999999995</v>
       </c>
       <c r="K60" t="n">
-        <v>-8.737864077669924</v>
+        <v>41.66666666666701</v>
       </c>
       <c r="L60" t="n">
         <v>7.351999999999999</v>
@@ -3611,7 +3633,7 @@
         <v>2.439999999999995</v>
       </c>
       <c r="K61" t="n">
-        <v>-9.615384615384698</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>7.350999999999997</v>
@@ -3668,7 +3690,7 @@
         <v>2.499999999999995</v>
       </c>
       <c r="K62" t="n">
-        <v>-26.00000000000007</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>7.344999999999997</v>
@@ -3729,7 +3751,7 @@
         <v>2.559999999999994</v>
       </c>
       <c r="K63" t="n">
-        <v>-10.41666666666676</v>
+        <v>14.99999999999992</v>
       </c>
       <c r="L63" t="n">
         <v>7.350999999999997</v>
@@ -3788,7 +3810,7 @@
         <v>2.559999999999994</v>
       </c>
       <c r="K64" t="n">
-        <v>-11.57894736842113</v>
+        <v>-41.66666666666701</v>
       </c>
       <c r="L64" t="n">
         <v>7.356999999999998</v>
@@ -3849,7 +3871,7 @@
         <v>2.649999999999994</v>
       </c>
       <c r="K65" t="n">
-        <v>-1.923076923076974</v>
+        <v>-3.030303030303243</v>
       </c>
       <c r="L65" t="n">
         <v>7.355999999999997</v>
@@ -3912,7 +3934,7 @@
         <v>2.659999999999995</v>
       </c>
       <c r="K66" t="n">
-        <v>-4.950495049504947</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>7.355999999999997</v>
@@ -3973,7 +3995,7 @@
         <v>2.659999999999995</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>-3.030303030302965</v>
       </c>
       <c r="L67" t="n">
         <v>7.355999999999997</v>
@@ -4034,7 +4056,7 @@
         <v>2.729999999999995</v>
       </c>
       <c r="K68" t="n">
-        <v>-14.58333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L68" t="n">
         <v>7.347999999999997</v>
@@ -4095,7 +4117,7 @@
         <v>2.799999999999995</v>
       </c>
       <c r="K69" t="n">
-        <v>1.052631578947441</v>
+        <v>-2.127659574468037</v>
       </c>
       <c r="L69" t="n">
         <v>7.346999999999999</v>
@@ -4156,7 +4178,7 @@
         <v>2.799999999999995</v>
       </c>
       <c r="K70" t="n">
-        <v>21.51898734177217</v>
+        <v>27.7777777777779</v>
       </c>
       <c r="L70" t="n">
         <v>7.345999999999999</v>
@@ -4217,7 +4239,7 @@
         <v>2.799999999999995</v>
       </c>
       <c r="K71" t="n">
-        <v>12.67605633802827</v>
+        <v>53.33333333333326</v>
       </c>
       <c r="L71" t="n">
         <v>7.356</v>
@@ -4278,7 +4300,7 @@
         <v>2.869999999999996</v>
       </c>
       <c r="K72" t="n">
-        <v>3.896103896103926</v>
+        <v>9.677419354838747</v>
       </c>
       <c r="L72" t="n">
         <v>7.365</v>
@@ -4339,7 +4361,7 @@
         <v>2.879999999999995</v>
       </c>
       <c r="K73" t="n">
-        <v>11.11111111111111</v>
+        <v>6.250000000000121</v>
       </c>
       <c r="L73" t="n">
         <v>7.367</v>
@@ -4396,7 +4418,7 @@
         <v>2.959999999999996</v>
       </c>
       <c r="K74" t="n">
-        <v>20</v>
+        <v>3.225806451613106</v>
       </c>
       <c r="L74" t="n">
         <v>7.377000000000001</v>
@@ -4453,7 +4475,7 @@
         <v>2.989999999999995</v>
       </c>
       <c r="K75" t="n">
-        <v>4.477611940298413</v>
+        <v>9.090909090908896</v>
       </c>
       <c r="L75" t="n">
         <v>7.381000000000002</v>
@@ -4510,7 +4532,7 @@
         <v>3.019999999999995</v>
       </c>
       <c r="K76" t="n">
-        <v>8.571428571428513</v>
+        <v>16.66666666666654</v>
       </c>
       <c r="L76" t="n">
         <v>7.387</v>
@@ -4567,7 +4589,7 @@
         <v>3.049999999999995</v>
       </c>
       <c r="K77" t="n">
-        <v>12.32876712328764</v>
+        <v>50</v>
       </c>
       <c r="L77" t="n">
         <v>7.395999999999999</v>
@@ -4624,7 +4646,7 @@
         <v>3.059999999999995</v>
       </c>
       <c r="K78" t="n">
-        <v>12.32876712328764</v>
+        <v>38.46153846153836</v>
       </c>
       <c r="L78" t="n">
         <v>7.412999999999999</v>
@@ -4681,7 +4703,7 @@
         <v>3.069999999999995</v>
       </c>
       <c r="K79" t="n">
-        <v>10.81081081081082</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L79" t="n">
         <v>7.421999999999999</v>
@@ -4738,7 +4760,7 @@
         <v>3.069999999999995</v>
       </c>
       <c r="K80" t="n">
-        <v>10.81081081081082</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L80" t="n">
         <v>7.430999999999997</v>
@@ -4789,7 +4811,7 @@
         <v>3.079999999999995</v>
       </c>
       <c r="K81" t="n">
-        <v>31.25000000000004</v>
+        <v>80.95238095238128</v>
       </c>
       <c r="L81" t="n">
         <v>7.440999999999997</v>
@@ -4840,7 +4862,7 @@
         <v>3.079999999999995</v>
       </c>
       <c r="K82" t="n">
-        <v>44.82758620689651</v>
+        <v>90.00000000000018</v>
       </c>
       <c r="L82" t="n">
         <v>7.457999999999997</v>
@@ -4891,7 +4913,7 @@
         <v>3.079999999999995</v>
       </c>
       <c r="K83" t="n">
-        <v>38.46153846153847</v>
+        <v>83.33333333333358</v>
       </c>
       <c r="L83" t="n">
         <v>7.475999999999996</v>
@@ -4942,7 +4964,7 @@
         <v>3.079999999999995</v>
       </c>
       <c r="K84" t="n">
-        <v>38.46153846153847</v>
+        <v>77.77777777777821</v>
       </c>
       <c r="L84" t="n">
         <v>7.485999999999995</v>
@@ -4993,7 +5015,7 @@
         <v>3.079999999999995</v>
       </c>
       <c r="K85" t="n">
-        <v>25.58139534883725</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L85" t="n">
         <v>7.492999999999995</v>
@@ -5044,7 +5066,7 @@
         <v>3.089999999999995</v>
       </c>
       <c r="K86" t="n">
-        <v>20.93023255813952</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>7.495999999999995</v>
@@ -5095,7 +5117,7 @@
         <v>3.109999999999994</v>
       </c>
       <c r="K87" t="n">
-        <v>24.44444444444436</v>
+        <v>20</v>
       </c>
       <c r="L87" t="n">
         <v>7.497999999999996</v>
@@ -5146,7 +5168,7 @@
         <v>3.119999999999994</v>
       </c>
       <c r="K88" t="n">
-        <v>48.71794871794874</v>
+        <v>60</v>
       </c>
       <c r="L88" t="n">
         <v>7.499999999999996</v>
@@ -5197,7 +5219,7 @@
         <v>3.119999999999994</v>
       </c>
       <c r="K89" t="n">
-        <v>37.49999999999993</v>
+        <v>60</v>
       </c>
       <c r="L89" t="n">
         <v>7.502999999999996</v>
@@ -5248,7 +5270,7 @@
         <v>3.119999999999994</v>
       </c>
       <c r="K90" t="n">
-        <v>37.49999999999993</v>
+        <v>50</v>
       </c>
       <c r="L90" t="n">
         <v>7.505999999999996</v>
@@ -5299,7 +5321,7 @@
         <v>3.129999999999994</v>
       </c>
       <c r="K91" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L91" t="n">
         <v>7.506999999999996</v>
@@ -5350,7 +5372,7 @@
         <v>3.139999999999993</v>
       </c>
       <c r="K92" t="n">
-        <v>70.37037037037076</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L92" t="n">
         <v>7.508999999999996</v>
@@ -5401,7 +5423,7 @@
         <v>3.139999999999993</v>
       </c>
       <c r="K93" t="n">
-        <v>76.92307692307723</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L93" t="n">
         <v>7.510999999999996</v>
@@ -5452,7 +5474,7 @@
         <v>3.209999999999994</v>
       </c>
       <c r="K94" t="n">
-        <v>76.00000000000034</v>
+        <v>69.23076923076965</v>
       </c>
       <c r="L94" t="n">
         <v>7.519999999999996</v>
@@ -5503,7 +5525,7 @@
         <v>3.309999999999993</v>
       </c>
       <c r="K95" t="n">
-        <v>18.75000000000025</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>7.518999999999996</v>
@@ -5554,7 +5576,7 @@
         <v>3.309999999999993</v>
       </c>
       <c r="K96" t="n">
-        <v>10.34482758620704</v>
+        <v>-9.999999999999822</v>
       </c>
       <c r="L96" t="n">
         <v>7.518999999999996</v>
@@ -5605,7 +5627,7 @@
         <v>3.319999999999993</v>
       </c>
       <c r="K97" t="n">
-        <v>3.703703703703655</v>
+        <v>-9.999999999999822</v>
       </c>
       <c r="L97" t="n">
         <v>7.517999999999995</v>
@@ -5656,7 +5678,7 @@
         <v>3.329999999999993</v>
       </c>
       <c r="K98" t="n">
-        <v>-3.703703703703655</v>
+        <v>-14.28571428571404</v>
       </c>
       <c r="L98" t="n">
         <v>7.514999999999995</v>
@@ -5707,7 +5729,7 @@
         <v>3.369999999999993</v>
       </c>
       <c r="K99" t="n">
-        <v>-13.33333333333343</v>
+        <v>-27.99999999999986</v>
       </c>
       <c r="L99" t="n">
         <v>7.507999999999996</v>
@@ -5758,7 +5780,7 @@
         <v>3.429999999999993</v>
       </c>
       <c r="K100" t="n">
-        <v>-27.77777777777804</v>
+        <v>-40.00000000000006</v>
       </c>
       <c r="L100" t="n">
         <v>7.494999999999996</v>
@@ -5809,7 +5831,7 @@
         <v>3.439999999999994</v>
       </c>
       <c r="K101" t="n">
-        <v>-27.77777777777772</v>
+        <v>-39.99999999999964</v>
       </c>
       <c r="L101" t="n">
         <v>7.483999999999996</v>

--- a/BackTest/2019-11-01 BackTest ZIL.xlsx
+++ b/BackTest/2019-11-01 BackTest ZIL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -501,6 +507,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,6 +549,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -583,6 +591,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -626,6 +635,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -669,6 +679,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -712,6 +723,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -753,6 +765,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -794,6 +807,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -835,6 +849,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -876,6 +891,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -917,6 +933,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -958,6 +975,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -999,6 +1017,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1040,6 +1059,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1081,6 +1101,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1122,6 +1143,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1163,6 +1185,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1204,6 +1227,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1245,6 +1269,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1286,6 +1311,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1327,6 +1353,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1368,6 +1395,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1409,6 +1437,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1450,6 +1479,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1491,6 +1521,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1532,6 +1563,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1573,6 +1605,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1614,6 +1647,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1655,6 +1689,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1696,6 +1731,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1737,6 +1773,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1778,6 +1815,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1819,6 +1857,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1860,6 +1899,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1901,6 +1941,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1942,6 +1983,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1983,6 +2025,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2024,6 +2067,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2065,6 +2109,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2106,6 +2151,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2147,6 +2193,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2190,6 +2237,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2231,6 +2279,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2274,6 +2323,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2315,6 +2365,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2358,6 +2409,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2399,6 +2451,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2440,6 +2493,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2481,6 +2535,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2524,6 +2579,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2565,6 +2621,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2606,6 +2663,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2647,6 +2705,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2688,6 +2747,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2729,6 +2789,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2772,6 +2833,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2815,6 +2877,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2858,6 +2921,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2901,6 +2965,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2942,6 +3007,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2983,6 +3049,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3024,6 +3091,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3065,6 +3133,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3106,6 +3175,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3147,6 +3217,9 @@
       <c r="M67" t="n">
         <v>1.051629834254144</v>
       </c>
+      <c r="N67" t="n">
+        <v>1.004160887656033</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3174,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -3182,6 +3255,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3209,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3217,6 +3291,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3244,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3252,6 +3327,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3279,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3287,6 +3363,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3322,6 +3399,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3357,6 +3435,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3392,6 +3471,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3427,6 +3507,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3462,6 +3543,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3497,6 +3579,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3532,6 +3615,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3559,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3567,6 +3651,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3594,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3602,6 +3687,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3637,6 +3723,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3672,6 +3759,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3707,6 +3795,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3742,6 +3831,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3777,6 +3867,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3804,7 +3895,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
         <v>7.4</v>
@@ -3816,6 +3907,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3843,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
         <v>7.4</v>
@@ -3859,6 +3951,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3902,6 +3995,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3941,6 +4035,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3984,6 +4079,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4025,6 +4121,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4066,6 +4163,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4109,6 +4207,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4152,6 +4251,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4193,6 +4293,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4234,6 +4335,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4277,6 +4379,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4318,6 +4421,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4361,6 +4465,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4402,6 +4507,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4443,6 +4549,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4484,6 +4591,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4525,6 +4633,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4552,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
@@ -4560,11 +4669,14 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>1</v>
+        <v>0.9936504723346828</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1.087988826815642</v>
       </c>
     </row>
     <row r="105">
@@ -4593,20 +4705,15 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4637,17 +4744,12 @@
         <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>1.001747638326586</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4683,6 +4785,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4718,6 +4821,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4753,6 +4857,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4788,6 +4893,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4815,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4823,6 +4929,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4850,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4858,6 +4965,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4893,6 +5001,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4920,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4928,6 +5037,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4963,6 +5073,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4998,6 +5109,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5033,6 +5145,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5068,6 +5181,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5103,6 +5217,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5138,6 +5253,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest ZIL.xlsx
+++ b/BackTest/2019-11-01 BackTest ZIL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:N149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.24</v>
+        <v>7.36</v>
       </c>
       <c r="C2" t="n">
-        <v>7.24</v>
+        <v>7.57</v>
       </c>
       <c r="D2" t="n">
-        <v>7.24</v>
+        <v>7.57</v>
       </c>
       <c r="E2" t="n">
-        <v>7.24</v>
+        <v>7.36</v>
       </c>
       <c r="F2" t="n">
-        <v>5754.2188</v>
+        <v>98453.8403</v>
       </c>
       <c r="G2" t="n">
-        <v>1110003.968648351</v>
+        <v>1480548.671848352</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,35 +474,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.21</v>
+        <v>7.57</v>
       </c>
       <c r="C3" t="n">
-        <v>7.21</v>
+        <v>7.61</v>
       </c>
       <c r="D3" t="n">
-        <v>7.21</v>
+        <v>7.62</v>
       </c>
       <c r="E3" t="n">
-        <v>7.21</v>
+        <v>7.53</v>
       </c>
       <c r="F3" t="n">
-        <v>74378.62209999999</v>
+        <v>655035.8955</v>
       </c>
       <c r="G3" t="n">
-        <v>1035625.346548351</v>
+        <v>2135584.567348352</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="K3" t="n">
-        <v>7.24</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -514,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.22</v>
+        <v>7.61</v>
       </c>
       <c r="C4" t="n">
-        <v>7.21</v>
+        <v>7.94</v>
       </c>
       <c r="D4" t="n">
-        <v>7.22</v>
+        <v>7.95</v>
       </c>
       <c r="E4" t="n">
-        <v>7.21</v>
+        <v>7.61</v>
       </c>
       <c r="F4" t="n">
-        <v>78276.64569999999</v>
+        <v>757062.2034999999</v>
       </c>
       <c r="G4" t="n">
-        <v>1035625.346548351</v>
+        <v>2892646.770848352</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,14 +534,8 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -556,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.21</v>
+        <v>7.95</v>
       </c>
       <c r="C5" t="n">
-        <v>7.21</v>
+        <v>7.98</v>
       </c>
       <c r="D5" t="n">
-        <v>7.21</v>
+        <v>7.99</v>
       </c>
       <c r="E5" t="n">
-        <v>7.21</v>
+        <v>7.95</v>
       </c>
       <c r="F5" t="n">
-        <v>42888.5363</v>
+        <v>238781.9052</v>
       </c>
       <c r="G5" t="n">
-        <v>1035625.346548351</v>
+        <v>3131428.676048351</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -580,14 +570,8 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -598,40 +582,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.17</v>
+        <v>7.97</v>
       </c>
       <c r="C6" t="n">
-        <v>7.16</v>
+        <v>7.73</v>
       </c>
       <c r="D6" t="n">
-        <v>7.17</v>
+        <v>7.99</v>
       </c>
       <c r="E6" t="n">
-        <v>7.16</v>
+        <v>7.73</v>
       </c>
       <c r="F6" t="n">
-        <v>93305.2154</v>
+        <v>125610.4549</v>
       </c>
       <c r="G6" t="n">
-        <v>942320.1311483515</v>
+        <v>3005818.221148352</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="K6" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -642,40 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.17</v>
+        <v>7.73</v>
       </c>
       <c r="C7" t="n">
-        <v>7.17</v>
+        <v>7.72</v>
       </c>
       <c r="D7" t="n">
-        <v>7.17</v>
+        <v>7.97</v>
       </c>
       <c r="E7" t="n">
-        <v>7.17</v>
+        <v>7.61</v>
       </c>
       <c r="F7" t="n">
-        <v>32171.6452</v>
+        <v>359097.0273</v>
       </c>
       <c r="G7" t="n">
-        <v>974491.7763483515</v>
+        <v>2646721.193848351</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -686,40 +654,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.24</v>
+        <v>7.72</v>
       </c>
       <c r="C8" t="n">
-        <v>7.24</v>
+        <v>7.62</v>
       </c>
       <c r="D8" t="n">
-        <v>7.24</v>
+        <v>7.94</v>
       </c>
       <c r="E8" t="n">
-        <v>7.24</v>
+        <v>7.62</v>
       </c>
       <c r="F8" t="n">
-        <v>24428.1226</v>
+        <v>319135.0727</v>
       </c>
       <c r="G8" t="n">
-        <v>998919.8989483515</v>
+        <v>2327586.121148352</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -730,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.18</v>
+        <v>7.51</v>
       </c>
       <c r="C9" t="n">
-        <v>7.18</v>
+        <v>7.64</v>
       </c>
       <c r="D9" t="n">
-        <v>7.18</v>
+        <v>7.64</v>
       </c>
       <c r="E9" t="n">
-        <v>7.18</v>
+        <v>7.5</v>
       </c>
       <c r="F9" t="n">
-        <v>19742.1149</v>
+        <v>138927.471</v>
       </c>
       <c r="G9" t="n">
-        <v>979177.7840483515</v>
+        <v>2466513.592148351</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -754,14 +714,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -772,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.24</v>
+        <v>7.61</v>
       </c>
       <c r="C10" t="n">
-        <v>7.24</v>
+        <v>7.14</v>
       </c>
       <c r="D10" t="n">
-        <v>7.24</v>
+        <v>7.61</v>
       </c>
       <c r="E10" t="n">
-        <v>7.24</v>
+        <v>7.14</v>
       </c>
       <c r="F10" t="n">
-        <v>2552.9785</v>
+        <v>812171.0868</v>
       </c>
       <c r="G10" t="n">
-        <v>981730.7625483514</v>
+        <v>1654342.505348351</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -796,14 +750,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -814,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
       <c r="C11" t="n">
-        <v>7.25</v>
+        <v>7.59</v>
       </c>
       <c r="D11" t="n">
-        <v>7.25</v>
+        <v>7.59</v>
       </c>
       <c r="E11" t="n">
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
       <c r="F11" t="n">
-        <v>150000</v>
+        <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>1131730.762548351</v>
+        <v>1654364.505348351</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -838,14 +786,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -856,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7.24</v>
+        <v>7.3</v>
       </c>
       <c r="C12" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="D12" t="n">
-        <v>7.24</v>
+        <v>7.3</v>
       </c>
       <c r="E12" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="F12" t="n">
-        <v>96862.4374</v>
+        <v>264.6575</v>
       </c>
       <c r="G12" t="n">
-        <v>1034868.325148351</v>
+        <v>1654099.847848351</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -880,14 +822,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -898,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7.2</v>
+        <v>7.28</v>
       </c>
       <c r="C13" t="n">
-        <v>7.2</v>
+        <v>7.27</v>
       </c>
       <c r="D13" t="n">
-        <v>7.2</v>
+        <v>7.28</v>
       </c>
       <c r="E13" t="n">
-        <v>7.2</v>
+        <v>7.27</v>
       </c>
       <c r="F13" t="n">
-        <v>149625</v>
+        <v>159436.9757</v>
       </c>
       <c r="G13" t="n">
-        <v>1034868.325148351</v>
+        <v>1494662.872148351</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -922,14 +858,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -940,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7.2</v>
+        <v>7.27</v>
       </c>
       <c r="C14" t="n">
-        <v>7.2</v>
+        <v>7.27</v>
       </c>
       <c r="D14" t="n">
-        <v>7.2</v>
+        <v>7.27</v>
       </c>
       <c r="E14" t="n">
-        <v>7.2</v>
+        <v>7.27</v>
       </c>
       <c r="F14" t="n">
-        <v>106137.889</v>
+        <v>388729.1432</v>
       </c>
       <c r="G14" t="n">
-        <v>1034868.325148351</v>
+        <v>1494662.872148351</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -964,14 +894,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -982,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7.27</v>
+        <v>7.2</v>
       </c>
       <c r="C15" t="n">
-        <v>7.27</v>
+        <v>7.14</v>
       </c>
       <c r="D15" t="n">
-        <v>7.27</v>
+        <v>7.43</v>
       </c>
       <c r="E15" t="n">
-        <v>7.27</v>
+        <v>7.14</v>
       </c>
       <c r="F15" t="n">
-        <v>50</v>
+        <v>86203.67660000001</v>
       </c>
       <c r="G15" t="n">
-        <v>1034918.325148351</v>
+        <v>1408459.195548351</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1006,14 +930,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1024,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7.2</v>
+        <v>7.14</v>
       </c>
       <c r="C16" t="n">
-        <v>7.2</v>
+        <v>7.14</v>
       </c>
       <c r="D16" t="n">
-        <v>7.2</v>
+        <v>7.14</v>
       </c>
       <c r="E16" t="n">
-        <v>7.2</v>
+        <v>7.14</v>
       </c>
       <c r="F16" t="n">
-        <v>60602.8896</v>
+        <v>190749.5991</v>
       </c>
       <c r="G16" t="n">
-        <v>974315.4355483515</v>
+        <v>1408459.195548351</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1048,14 +966,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.2</v>
+        <v>7.38</v>
       </c>
       <c r="C17" t="n">
-        <v>7.2</v>
+        <v>7.38</v>
       </c>
       <c r="D17" t="n">
-        <v>7.2</v>
+        <v>7.38</v>
       </c>
       <c r="E17" t="n">
-        <v>7.2</v>
+        <v>7.38</v>
       </c>
       <c r="F17" t="n">
-        <v>153834.245</v>
+        <v>19149.3318</v>
       </c>
       <c r="G17" t="n">
-        <v>974315.4355483515</v>
+        <v>1427608.527348351</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1090,14 +1002,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1108,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7.19</v>
+        <v>7.38</v>
       </c>
       <c r="C18" t="n">
-        <v>7.19</v>
+        <v>7.38</v>
       </c>
       <c r="D18" t="n">
-        <v>7.19</v>
+        <v>7.38</v>
       </c>
       <c r="E18" t="n">
-        <v>7.19</v>
+        <v>7.38</v>
       </c>
       <c r="F18" t="n">
-        <v>896.4155</v>
+        <v>135483.2928</v>
       </c>
       <c r="G18" t="n">
-        <v>973419.0200483515</v>
+        <v>1427608.527348351</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1132,14 +1038,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1150,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7.19</v>
+        <v>7.2</v>
       </c>
       <c r="C19" t="n">
-        <v>7.19</v>
+        <v>7.18</v>
       </c>
       <c r="D19" t="n">
-        <v>7.19</v>
+        <v>7.2</v>
       </c>
       <c r="E19" t="n">
-        <v>7.19</v>
+        <v>7.18</v>
       </c>
       <c r="F19" t="n">
-        <v>68765.1283</v>
+        <v>59165.2959</v>
       </c>
       <c r="G19" t="n">
-        <v>973419.0200483515</v>
+        <v>1368443.231448351</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1174,14 +1074,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1192,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.27</v>
+        <v>7.19</v>
       </c>
       <c r="C20" t="n">
-        <v>7.39</v>
+        <v>7.18</v>
       </c>
       <c r="D20" t="n">
-        <v>7.39</v>
+        <v>7.19</v>
       </c>
       <c r="E20" t="n">
-        <v>7.27</v>
+        <v>7.18</v>
       </c>
       <c r="F20" t="n">
-        <v>74128.24460000001</v>
+        <v>12461.4712</v>
       </c>
       <c r="G20" t="n">
-        <v>1047547.264648351</v>
+        <v>1368443.231448351</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1216,14 +1110,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1234,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.43</v>
+        <v>7.17</v>
       </c>
       <c r="C21" t="n">
-        <v>7.43</v>
+        <v>7.16</v>
       </c>
       <c r="D21" t="n">
-        <v>7.43</v>
+        <v>7.17</v>
       </c>
       <c r="E21" t="n">
-        <v>7.43</v>
+        <v>7.16</v>
       </c>
       <c r="F21" t="n">
-        <v>7006.0193</v>
+        <v>107166.5828</v>
       </c>
       <c r="G21" t="n">
-        <v>1054553.283948351</v>
+        <v>1261276.648648351</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1258,14 +1146,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1276,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.44</v>
+        <v>7.17</v>
       </c>
       <c r="C22" t="n">
-        <v>7.44</v>
+        <v>7.17</v>
       </c>
       <c r="D22" t="n">
-        <v>7.44</v>
+        <v>7.17</v>
       </c>
       <c r="E22" t="n">
-        <v>7.44</v>
+        <v>7.17</v>
       </c>
       <c r="F22" t="n">
-        <v>30000</v>
+        <v>75.375</v>
       </c>
       <c r="G22" t="n">
-        <v>1084553.283948351</v>
+        <v>1261352.023648351</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1300,14 +1182,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1318,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.4</v>
+        <v>7.17</v>
       </c>
       <c r="C23" t="n">
-        <v>7.39</v>
+        <v>7.17</v>
       </c>
       <c r="D23" t="n">
-        <v>7.4</v>
+        <v>7.17</v>
       </c>
       <c r="E23" t="n">
-        <v>7.39</v>
+        <v>7.17</v>
       </c>
       <c r="F23" t="n">
-        <v>47345.0803</v>
+        <v>30910.3542</v>
       </c>
       <c r="G23" t="n">
-        <v>1037208.203648351</v>
+        <v>1261352.023648351</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1342,14 +1218,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1360,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.4</v>
+        <v>7.35</v>
       </c>
       <c r="C24" t="n">
-        <v>7.38</v>
+        <v>7.35</v>
       </c>
       <c r="D24" t="n">
-        <v>7.4</v>
+        <v>7.35</v>
       </c>
       <c r="E24" t="n">
-        <v>7.21</v>
+        <v>7.35</v>
       </c>
       <c r="F24" t="n">
-        <v>115996.9843</v>
+        <v>20292.887</v>
       </c>
       <c r="G24" t="n">
-        <v>921211.2193483514</v>
+        <v>1281644.910648352</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1384,14 +1254,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1402,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7.23</v>
+        <v>7.33</v>
       </c>
       <c r="C25" t="n">
-        <v>7.23</v>
+        <v>7.33</v>
       </c>
       <c r="D25" t="n">
-        <v>7.23</v>
+        <v>7.33</v>
       </c>
       <c r="E25" t="n">
-        <v>7.23</v>
+        <v>7.33</v>
       </c>
       <c r="F25" t="n">
-        <v>13826</v>
+        <v>47864.5293</v>
       </c>
       <c r="G25" t="n">
-        <v>907385.2193483514</v>
+        <v>1233780.381348351</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1426,14 +1290,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1444,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7.44</v>
+        <v>7.2</v>
       </c>
       <c r="C26" t="n">
-        <v>7.44</v>
+        <v>7.18</v>
       </c>
       <c r="D26" t="n">
-        <v>7.44</v>
+        <v>7.2</v>
       </c>
       <c r="E26" t="n">
-        <v>7.44</v>
+        <v>7.18</v>
       </c>
       <c r="F26" t="n">
-        <v>1400</v>
+        <v>36151.2986</v>
       </c>
       <c r="G26" t="n">
-        <v>908785.2193483514</v>
+        <v>1197629.082748351</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1468,14 +1326,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1486,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7.41</v>
+        <v>7.19</v>
       </c>
       <c r="C27" t="n">
-        <v>7.41</v>
+        <v>7.18</v>
       </c>
       <c r="D27" t="n">
-        <v>7.41</v>
+        <v>7.19</v>
       </c>
       <c r="E27" t="n">
-        <v>7.41</v>
+        <v>7.18</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>35260.9564</v>
       </c>
       <c r="G27" t="n">
-        <v>908775.2193483514</v>
+        <v>1197629.082748351</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1510,14 +1362,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1528,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7.41</v>
+        <v>7.19</v>
       </c>
       <c r="C28" t="n">
-        <v>7.41</v>
+        <v>7.17</v>
       </c>
       <c r="D28" t="n">
-        <v>7.41</v>
+        <v>7.19</v>
       </c>
       <c r="E28" t="n">
-        <v>7.41</v>
+        <v>7.17</v>
       </c>
       <c r="F28" t="n">
-        <v>70</v>
+        <v>63642.5677</v>
       </c>
       <c r="G28" t="n">
-        <v>908775.2193483514</v>
+        <v>1133986.515048351</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1552,14 +1398,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1570,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7.41</v>
+        <v>7.32</v>
       </c>
       <c r="C29" t="n">
-        <v>7.41</v>
+        <v>7.32</v>
       </c>
       <c r="D29" t="n">
-        <v>7.41</v>
+        <v>7.32</v>
       </c>
       <c r="E29" t="n">
-        <v>7.41</v>
+        <v>7.32</v>
       </c>
       <c r="F29" t="n">
-        <v>20</v>
+        <v>27260.083</v>
       </c>
       <c r="G29" t="n">
-        <v>908775.2193483514</v>
+        <v>1161246.598048351</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1594,14 +1434,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1612,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7.41</v>
+        <v>7.3</v>
       </c>
       <c r="C30" t="n">
-        <v>7.41</v>
+        <v>7.3</v>
       </c>
       <c r="D30" t="n">
-        <v>7.41</v>
+        <v>7.3</v>
       </c>
       <c r="E30" t="n">
-        <v>7.41</v>
+        <v>7.3</v>
       </c>
       <c r="F30" t="n">
-        <v>60</v>
+        <v>45488.4106</v>
       </c>
       <c r="G30" t="n">
-        <v>908775.2193483514</v>
+        <v>1115758.187448351</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1636,14 +1470,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1654,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7.41</v>
+        <v>7.24</v>
       </c>
       <c r="C31" t="n">
-        <v>7.42</v>
+        <v>7.24</v>
       </c>
       <c r="D31" t="n">
-        <v>7.42</v>
+        <v>7.24</v>
       </c>
       <c r="E31" t="n">
-        <v>7.41</v>
+        <v>7.24</v>
       </c>
       <c r="F31" t="n">
-        <v>13277.944</v>
+        <v>5754.2188</v>
       </c>
       <c r="G31" t="n">
-        <v>922053.1633483514</v>
+        <v>1110003.968648351</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1678,14 +1506,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1696,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7.42</v>
+        <v>7.21</v>
       </c>
       <c r="C32" t="n">
-        <v>7.42</v>
+        <v>7.21</v>
       </c>
       <c r="D32" t="n">
-        <v>7.42</v>
+        <v>7.21</v>
       </c>
       <c r="E32" t="n">
-        <v>7.42</v>
+        <v>7.21</v>
       </c>
       <c r="F32" t="n">
-        <v>120</v>
+        <v>74378.62209999999</v>
       </c>
       <c r="G32" t="n">
-        <v>922053.1633483514</v>
+        <v>1035625.346548351</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1720,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1738,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7.42</v>
+        <v>7.22</v>
       </c>
       <c r="C33" t="n">
-        <v>7.42</v>
+        <v>7.21</v>
       </c>
       <c r="D33" t="n">
-        <v>7.42</v>
+        <v>7.22</v>
       </c>
       <c r="E33" t="n">
-        <v>7.41</v>
+        <v>7.21</v>
       </c>
       <c r="F33" t="n">
-        <v>67989.6731</v>
+        <v>78276.64569999999</v>
       </c>
       <c r="G33" t="n">
-        <v>922053.1633483514</v>
+        <v>1035625.346548351</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1762,14 +1578,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1780,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7.43</v>
+        <v>7.21</v>
       </c>
       <c r="C34" t="n">
-        <v>7.43</v>
+        <v>7.21</v>
       </c>
       <c r="D34" t="n">
-        <v>7.43</v>
+        <v>7.21</v>
       </c>
       <c r="E34" t="n">
-        <v>7.43</v>
+        <v>7.21</v>
       </c>
       <c r="F34" t="n">
-        <v>140</v>
+        <v>42888.5363</v>
       </c>
       <c r="G34" t="n">
-        <v>922193.1633483514</v>
+        <v>1035625.346548351</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1804,14 +1614,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1822,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7.42</v>
+        <v>7.17</v>
       </c>
       <c r="C35" t="n">
-        <v>7.43</v>
+        <v>7.16</v>
       </c>
       <c r="D35" t="n">
-        <v>7.43</v>
+        <v>7.17</v>
       </c>
       <c r="E35" t="n">
-        <v>7.42</v>
+        <v>7.16</v>
       </c>
       <c r="F35" t="n">
-        <v>10540</v>
+        <v>93305.2154</v>
       </c>
       <c r="G35" t="n">
-        <v>922193.1633483514</v>
+        <v>942320.1311483515</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1846,14 +1650,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1864,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7.43</v>
+        <v>7.17</v>
       </c>
       <c r="C36" t="n">
-        <v>7.43</v>
+        <v>7.17</v>
       </c>
       <c r="D36" t="n">
-        <v>7.43</v>
+        <v>7.17</v>
       </c>
       <c r="E36" t="n">
-        <v>7.43</v>
+        <v>7.17</v>
       </c>
       <c r="F36" t="n">
-        <v>70</v>
+        <v>32171.6452</v>
       </c>
       <c r="G36" t="n">
-        <v>922193.1633483514</v>
+        <v>974491.7763483515</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1888,14 +1686,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1906,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7.43</v>
+        <v>7.24</v>
       </c>
       <c r="C37" t="n">
-        <v>7.43</v>
+        <v>7.24</v>
       </c>
       <c r="D37" t="n">
-        <v>7.43</v>
+        <v>7.24</v>
       </c>
       <c r="E37" t="n">
-        <v>7.43</v>
+        <v>7.24</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>24428.1226</v>
       </c>
       <c r="G37" t="n">
-        <v>922193.1633483514</v>
+        <v>998919.8989483515</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1930,14 +1722,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1948,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.43</v>
+        <v>7.18</v>
       </c>
       <c r="C38" t="n">
-        <v>7.43</v>
+        <v>7.18</v>
       </c>
       <c r="D38" t="n">
-        <v>7.43</v>
+        <v>7.18</v>
       </c>
       <c r="E38" t="n">
-        <v>7.43</v>
+        <v>7.18</v>
       </c>
       <c r="F38" t="n">
-        <v>70</v>
+        <v>19742.1149</v>
       </c>
       <c r="G38" t="n">
-        <v>922193.1633483514</v>
+        <v>979177.7840483515</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1972,14 +1758,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1990,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7.42</v>
+        <v>7.24</v>
       </c>
       <c r="C39" t="n">
-        <v>7.41</v>
+        <v>7.24</v>
       </c>
       <c r="D39" t="n">
-        <v>7.42</v>
+        <v>7.24</v>
       </c>
       <c r="E39" t="n">
-        <v>7.41</v>
+        <v>7.24</v>
       </c>
       <c r="F39" t="n">
-        <v>110</v>
+        <v>2552.9785</v>
       </c>
       <c r="G39" t="n">
-        <v>922083.1633483514</v>
+        <v>981730.7625483514</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2014,14 +1794,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2032,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7.41</v>
+        <v>7.25</v>
       </c>
       <c r="C40" t="n">
-        <v>7.43</v>
+        <v>7.25</v>
       </c>
       <c r="D40" t="n">
-        <v>7.43</v>
+        <v>7.25</v>
       </c>
       <c r="E40" t="n">
-        <v>7.41</v>
+        <v>7.25</v>
       </c>
       <c r="F40" t="n">
-        <v>11360</v>
+        <v>150000</v>
       </c>
       <c r="G40" t="n">
-        <v>933443.1633483514</v>
+        <v>1131730.762548351</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2056,14 +1830,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2074,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>7.28</v>
+        <v>7.24</v>
       </c>
       <c r="C41" t="n">
-        <v>7.28</v>
+        <v>7.2</v>
       </c>
       <c r="D41" t="n">
-        <v>7.28</v>
+        <v>7.24</v>
       </c>
       <c r="E41" t="n">
-        <v>7.28</v>
+        <v>7.2</v>
       </c>
       <c r="F41" t="n">
-        <v>418.5314</v>
+        <v>96862.4374</v>
       </c>
       <c r="G41" t="n">
-        <v>933024.6319483514</v>
+        <v>1034868.325148351</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2098,14 +1866,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2116,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.24</v>
+        <v>7.2</v>
       </c>
       <c r="C42" t="n">
-        <v>7.18</v>
+        <v>7.2</v>
       </c>
       <c r="D42" t="n">
-        <v>7.24</v>
+        <v>7.2</v>
       </c>
       <c r="E42" t="n">
-        <v>7.18</v>
+        <v>7.2</v>
       </c>
       <c r="F42" t="n">
-        <v>171798.7905</v>
+        <v>149625</v>
       </c>
       <c r="G42" t="n">
-        <v>761225.8414483514</v>
+        <v>1034868.325148351</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2140,14 +1902,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2158,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.21</v>
+        <v>7.2</v>
       </c>
       <c r="C43" t="n">
-        <v>7.17</v>
+        <v>7.2</v>
       </c>
       <c r="D43" t="n">
-        <v>7.21</v>
+        <v>7.2</v>
       </c>
       <c r="E43" t="n">
-        <v>7.17</v>
+        <v>7.2</v>
       </c>
       <c r="F43" t="n">
-        <v>149591.8105</v>
+        <v>106137.889</v>
       </c>
       <c r="G43" t="n">
-        <v>611634.0309483514</v>
+        <v>1034868.325148351</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2182,14 +1938,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2200,40 +1950,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7.17</v>
+        <v>7.27</v>
       </c>
       <c r="C44" t="n">
-        <v>7.17</v>
+        <v>7.27</v>
       </c>
       <c r="D44" t="n">
-        <v>7.17</v>
+        <v>7.27</v>
       </c>
       <c r="E44" t="n">
-        <v>7.17</v>
+        <v>7.27</v>
       </c>
       <c r="F44" t="n">
-        <v>45754.3765</v>
+        <v>50</v>
       </c>
       <c r="G44" t="n">
-        <v>611634.0309483514</v>
+        <v>1034918.325148351</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K44" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2256,10 +1998,10 @@
         <v>7.2</v>
       </c>
       <c r="F45" t="n">
-        <v>43466.6577</v>
+        <v>60602.8896</v>
       </c>
       <c r="G45" t="n">
-        <v>655100.6886483514</v>
+        <v>974315.4355483515</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2268,14 +2010,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2298,28 +2034,20 @@
         <v>7.2</v>
       </c>
       <c r="F46" t="n">
-        <v>41293.3248</v>
+        <v>153834.245</v>
       </c>
       <c r="G46" t="n">
-        <v>655100.6886483514</v>
+        <v>974315.4355483515</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K46" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2330,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7.25</v>
+        <v>7.19</v>
       </c>
       <c r="C47" t="n">
-        <v>7.2</v>
+        <v>7.19</v>
       </c>
       <c r="D47" t="n">
-        <v>7.25</v>
+        <v>7.19</v>
       </c>
       <c r="E47" t="n">
-        <v>7.2</v>
+        <v>7.19</v>
       </c>
       <c r="F47" t="n">
-        <v>65711.41650000001</v>
+        <v>896.4155</v>
       </c>
       <c r="G47" t="n">
-        <v>655100.6886483514</v>
+        <v>973419.0200483515</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2354,14 +2082,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2372,40 +2094,32 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.32</v>
+        <v>7.19</v>
       </c>
       <c r="C48" t="n">
-        <v>7.32</v>
+        <v>7.19</v>
       </c>
       <c r="D48" t="n">
-        <v>7.32</v>
+        <v>7.19</v>
       </c>
       <c r="E48" t="n">
-        <v>7.32</v>
+        <v>7.19</v>
       </c>
       <c r="F48" t="n">
-        <v>11525.1471</v>
+        <v>68765.1283</v>
       </c>
       <c r="G48" t="n">
-        <v>666625.8357483513</v>
+        <v>973419.0200483515</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K48" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2416,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7.33</v>
+        <v>7.27</v>
       </c>
       <c r="C49" t="n">
-        <v>7.33</v>
+        <v>7.39</v>
       </c>
       <c r="D49" t="n">
-        <v>7.33</v>
+        <v>7.39</v>
       </c>
       <c r="E49" t="n">
-        <v>7.33</v>
+        <v>7.27</v>
       </c>
       <c r="F49" t="n">
-        <v>36370.4165</v>
+        <v>74128.24460000001</v>
       </c>
       <c r="G49" t="n">
-        <v>702996.2522483513</v>
+        <v>1047547.264648351</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2440,14 +2154,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2458,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.33</v>
+        <v>7.43</v>
       </c>
       <c r="C50" t="n">
-        <v>7.39</v>
+        <v>7.43</v>
       </c>
       <c r="D50" t="n">
-        <v>7.4</v>
+        <v>7.43</v>
       </c>
       <c r="E50" t="n">
-        <v>7.33</v>
+        <v>7.43</v>
       </c>
       <c r="F50" t="n">
-        <v>83531.4743</v>
+        <v>7006.0193</v>
       </c>
       <c r="G50" t="n">
-        <v>786527.7265483513</v>
+        <v>1054553.283948351</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2482,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2500,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.39</v>
+        <v>7.44</v>
       </c>
       <c r="C51" t="n">
-        <v>7.41</v>
+        <v>7.44</v>
       </c>
       <c r="D51" t="n">
-        <v>7.41</v>
+        <v>7.44</v>
       </c>
       <c r="E51" t="n">
-        <v>7.39</v>
+        <v>7.44</v>
       </c>
       <c r="F51" t="n">
-        <v>154186.9783</v>
+        <v>30000</v>
       </c>
       <c r="G51" t="n">
-        <v>940714.7048483513</v>
+        <v>1084553.283948351</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2524,14 +2226,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2542,40 +2238,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.39</v>
+        <v>7.4</v>
       </c>
       <c r="C52" t="n">
         <v>7.39</v>
       </c>
       <c r="D52" t="n">
-        <v>7.39</v>
+        <v>7.4</v>
       </c>
       <c r="E52" t="n">
         <v>7.39</v>
       </c>
       <c r="F52" t="n">
-        <v>31426.2422</v>
+        <v>47345.0803</v>
       </c>
       <c r="G52" t="n">
-        <v>909288.4626483513</v>
+        <v>1037208.203648351</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="K52" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2586,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7.33</v>
+        <v>7.4</v>
       </c>
       <c r="C53" t="n">
-        <v>7.4</v>
+        <v>7.38</v>
       </c>
       <c r="D53" t="n">
         <v>7.4</v>
       </c>
       <c r="E53" t="n">
-        <v>7.33</v>
+        <v>7.21</v>
       </c>
       <c r="F53" t="n">
-        <v>79477.75290000001</v>
+        <v>115996.9843</v>
       </c>
       <c r="G53" t="n">
-        <v>988766.2155483513</v>
+        <v>921211.2193483514</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2610,14 +2298,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2628,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7.41</v>
+        <v>7.23</v>
       </c>
       <c r="C54" t="n">
-        <v>7.43</v>
+        <v>7.23</v>
       </c>
       <c r="D54" t="n">
-        <v>7.43</v>
+        <v>7.23</v>
       </c>
       <c r="E54" t="n">
-        <v>7.41</v>
+        <v>7.23</v>
       </c>
       <c r="F54" t="n">
-        <v>706251.5220999999</v>
+        <v>13826</v>
       </c>
       <c r="G54" t="n">
-        <v>1695017.737648351</v>
+        <v>907385.2193483514</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2652,14 +2334,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2670,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7.4</v>
+        <v>7.44</v>
       </c>
       <c r="C55" t="n">
-        <v>7.4</v>
+        <v>7.44</v>
       </c>
       <c r="D55" t="n">
-        <v>7.4</v>
+        <v>7.44</v>
       </c>
       <c r="E55" t="n">
-        <v>7.4</v>
+        <v>7.44</v>
       </c>
       <c r="F55" t="n">
-        <v>35403.8643</v>
+        <v>1400</v>
       </c>
       <c r="G55" t="n">
-        <v>1659613.873348351</v>
+        <v>908785.2193483514</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2694,14 +2370,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2712,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="C56" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="D56" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="E56" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="F56" t="n">
-        <v>16045.608</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>1659613.873348351</v>
+        <v>908775.2193483514</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2736,14 +2406,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2754,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>7.43</v>
+        <v>7.41</v>
       </c>
       <c r="C57" t="n">
-        <v>7.5</v>
+        <v>7.41</v>
       </c>
       <c r="D57" t="n">
-        <v>7.5</v>
+        <v>7.41</v>
       </c>
       <c r="E57" t="n">
-        <v>7.43</v>
+        <v>7.41</v>
       </c>
       <c r="F57" t="n">
-        <v>194871.3007</v>
+        <v>70</v>
       </c>
       <c r="G57" t="n">
-        <v>1854485.174048351</v>
+        <v>908775.2193483514</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2778,14 +2442,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2796,40 +2454,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="C58" t="n">
-        <v>7.45</v>
+        <v>7.41</v>
       </c>
       <c r="D58" t="n">
-        <v>7.45</v>
+        <v>7.41</v>
       </c>
       <c r="E58" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="F58" t="n">
-        <v>56904.5363</v>
+        <v>20</v>
       </c>
       <c r="G58" t="n">
-        <v>1797580.637748351</v>
+        <v>908775.2193483514</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K58" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2840,40 +2490,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>7.45</v>
+        <v>7.41</v>
       </c>
       <c r="C59" t="n">
-        <v>7.5</v>
+        <v>7.41</v>
       </c>
       <c r="D59" t="n">
-        <v>7.5</v>
+        <v>7.41</v>
       </c>
       <c r="E59" t="n">
-        <v>7.45</v>
+        <v>7.41</v>
       </c>
       <c r="F59" t="n">
-        <v>274399.828</v>
+        <v>60</v>
       </c>
       <c r="G59" t="n">
-        <v>2071980.465748351</v>
+        <v>908775.2193483514</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="K59" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2884,40 +2526,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>7.5</v>
+        <v>7.41</v>
       </c>
       <c r="C60" t="n">
-        <v>7.55</v>
+        <v>7.42</v>
       </c>
       <c r="D60" t="n">
-        <v>7.55</v>
+        <v>7.42</v>
       </c>
       <c r="E60" t="n">
-        <v>7.5</v>
+        <v>7.41</v>
       </c>
       <c r="F60" t="n">
-        <v>256481.2336</v>
+        <v>13277.944</v>
       </c>
       <c r="G60" t="n">
-        <v>2328461.699348351</v>
+        <v>922053.1633483514</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K60" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2928,40 +2562,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>7.55</v>
+        <v>7.42</v>
       </c>
       <c r="C61" t="n">
-        <v>7.61</v>
+        <v>7.42</v>
       </c>
       <c r="D61" t="n">
-        <v>7.61</v>
+        <v>7.42</v>
       </c>
       <c r="E61" t="n">
-        <v>7.55</v>
+        <v>7.42</v>
       </c>
       <c r="F61" t="n">
-        <v>359240.9884</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
-        <v>2687702.687748351</v>
+        <v>922053.1633483514</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="K61" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2972,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>7.59</v>
+        <v>7.42</v>
       </c>
       <c r="C62" t="n">
-        <v>7.6</v>
+        <v>7.42</v>
       </c>
       <c r="D62" t="n">
-        <v>7.6</v>
+        <v>7.42</v>
       </c>
       <c r="E62" t="n">
-        <v>7.54</v>
+        <v>7.41</v>
       </c>
       <c r="F62" t="n">
-        <v>13228.1553</v>
+        <v>67989.6731</v>
       </c>
       <c r="G62" t="n">
-        <v>2674474.532448351</v>
+        <v>922053.1633483514</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2996,14 +2622,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3014,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>7.59</v>
+        <v>7.43</v>
       </c>
       <c r="C63" t="n">
-        <v>7.61</v>
+        <v>7.43</v>
       </c>
       <c r="D63" t="n">
-        <v>7.61</v>
+        <v>7.43</v>
       </c>
       <c r="E63" t="n">
-        <v>7.59</v>
+        <v>7.43</v>
       </c>
       <c r="F63" t="n">
-        <v>75361.0205</v>
+        <v>140</v>
       </c>
       <c r="G63" t="n">
-        <v>2749835.552948351</v>
+        <v>922193.1633483514</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3038,14 +2658,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3056,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7.59</v>
+        <v>7.42</v>
       </c>
       <c r="C64" t="n">
-        <v>7.61</v>
+        <v>7.43</v>
       </c>
       <c r="D64" t="n">
-        <v>7.61</v>
+        <v>7.43</v>
       </c>
       <c r="E64" t="n">
-        <v>7.59</v>
+        <v>7.42</v>
       </c>
       <c r="F64" t="n">
-        <v>34777.4225</v>
+        <v>10540</v>
       </c>
       <c r="G64" t="n">
-        <v>2749835.552948351</v>
+        <v>922193.1633483514</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3080,14 +2694,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3098,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7.61</v>
+        <v>7.43</v>
       </c>
       <c r="C65" t="n">
-        <v>7.69</v>
+        <v>7.43</v>
       </c>
       <c r="D65" t="n">
-        <v>7.69</v>
+        <v>7.43</v>
       </c>
       <c r="E65" t="n">
-        <v>7.61</v>
+        <v>7.43</v>
       </c>
       <c r="F65" t="n">
-        <v>30391.4766</v>
+        <v>70</v>
       </c>
       <c r="G65" t="n">
-        <v>2780227.029548351</v>
+        <v>922193.1633483514</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3122,14 +2730,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3140,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.69</v>
+        <v>7.43</v>
       </c>
       <c r="C66" t="n">
-        <v>7.7</v>
+        <v>7.43</v>
       </c>
       <c r="D66" t="n">
-        <v>7.72</v>
+        <v>7.43</v>
       </c>
       <c r="E66" t="n">
-        <v>7.61</v>
+        <v>7.43</v>
       </c>
       <c r="F66" t="n">
-        <v>373161.5658</v>
+        <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>3153388.595348351</v>
+        <v>922193.1633483514</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3164,14 +2766,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3182,72 +2778,64 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7.7</v>
+        <v>7.43</v>
       </c>
       <c r="C67" t="n">
-        <v>7.65</v>
+        <v>7.43</v>
       </c>
       <c r="D67" t="n">
-        <v>7.79</v>
+        <v>7.43</v>
       </c>
       <c r="E67" t="n">
-        <v>7.65</v>
+        <v>7.43</v>
       </c>
       <c r="F67" t="n">
-        <v>162243.7016</v>
+        <v>70</v>
       </c>
       <c r="G67" t="n">
-        <v>2991144.893748351</v>
+        <v>922193.1633483514</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>1.051629834254144</v>
-      </c>
-      <c r="N67" t="n">
-        <v>1.004160887656033</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7.65</v>
+        <v>7.42</v>
       </c>
       <c r="C68" t="n">
-        <v>7.67</v>
+        <v>7.41</v>
       </c>
       <c r="D68" t="n">
-        <v>7.79</v>
+        <v>7.42</v>
       </c>
       <c r="E68" t="n">
-        <v>7.6</v>
+        <v>7.41</v>
       </c>
       <c r="F68" t="n">
-        <v>245728.0021</v>
+        <v>110</v>
       </c>
       <c r="G68" t="n">
-        <v>3236872.895848352</v>
+        <v>922083.1633483514</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -3262,28 +2850,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7.6</v>
+        <v>7.41</v>
       </c>
       <c r="C69" t="n">
-        <v>7.6</v>
+        <v>7.43</v>
       </c>
       <c r="D69" t="n">
-        <v>7.6</v>
+        <v>7.43</v>
       </c>
       <c r="E69" t="n">
-        <v>7.6</v>
+        <v>7.41</v>
       </c>
       <c r="F69" t="n">
-        <v>88554.7064</v>
+        <v>11360</v>
       </c>
       <c r="G69" t="n">
-        <v>3148318.189448352</v>
+        <v>933443.1633483514</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3298,28 +2886,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>7.6</v>
+        <v>7.28</v>
       </c>
       <c r="C70" t="n">
-        <v>7.5</v>
+        <v>7.28</v>
       </c>
       <c r="D70" t="n">
-        <v>7.6</v>
+        <v>7.28</v>
       </c>
       <c r="E70" t="n">
-        <v>7.5</v>
+        <v>7.28</v>
       </c>
       <c r="F70" t="n">
-        <v>145654.5804</v>
+        <v>418.5314</v>
       </c>
       <c r="G70" t="n">
-        <v>3002663.609048352</v>
+        <v>933024.6319483514</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3334,28 +2922,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>7.48</v>
+        <v>7.24</v>
       </c>
       <c r="C71" t="n">
-        <v>7.4</v>
+        <v>7.18</v>
       </c>
       <c r="D71" t="n">
-        <v>7.6</v>
+        <v>7.24</v>
       </c>
       <c r="E71" t="n">
-        <v>7.4</v>
+        <v>7.18</v>
       </c>
       <c r="F71" t="n">
-        <v>214308.19</v>
+        <v>171798.7905</v>
       </c>
       <c r="G71" t="n">
-        <v>2788355.419048352</v>
+        <v>761225.8414483514</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3370,32 +2958,38 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>7.5</v>
+        <v>7.21</v>
       </c>
       <c r="C72" t="n">
-        <v>7.5</v>
+        <v>7.17</v>
       </c>
       <c r="D72" t="n">
-        <v>7.5</v>
+        <v>7.21</v>
       </c>
       <c r="E72" t="n">
-        <v>7.5</v>
+        <v>7.17</v>
       </c>
       <c r="F72" t="n">
-        <v>11</v>
+        <v>149591.8105</v>
       </c>
       <c r="G72" t="n">
-        <v>2788366.419048352</v>
+        <v>611634.0309483514</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>7.18</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3406,32 +3000,38 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7.4</v>
+        <v>7.17</v>
       </c>
       <c r="C73" t="n">
-        <v>7.4</v>
+        <v>7.17</v>
       </c>
       <c r="D73" t="n">
-        <v>7.48</v>
+        <v>7.17</v>
       </c>
       <c r="E73" t="n">
-        <v>7.39</v>
+        <v>7.17</v>
       </c>
       <c r="F73" t="n">
-        <v>387505.1576</v>
+        <v>45754.3765</v>
       </c>
       <c r="G73" t="n">
-        <v>2400861.261448352</v>
+        <v>611634.0309483514</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>7.17</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3442,32 +3042,38 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="C74" t="n">
-        <v>7.41</v>
+        <v>7.2</v>
       </c>
       <c r="D74" t="n">
-        <v>7.41</v>
+        <v>7.2</v>
       </c>
       <c r="E74" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="F74" t="n">
-        <v>91.125</v>
+        <v>43466.6577</v>
       </c>
       <c r="G74" t="n">
-        <v>2400952.386448352</v>
+        <v>655100.6886483514</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>7.17</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3478,32 +3084,38 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7.41</v>
+        <v>7.2</v>
       </c>
       <c r="C75" t="n">
-        <v>7.41</v>
+        <v>7.2</v>
       </c>
       <c r="D75" t="n">
-        <v>7.41</v>
+        <v>7.2</v>
       </c>
       <c r="E75" t="n">
-        <v>7.41</v>
+        <v>7.2</v>
       </c>
       <c r="F75" t="n">
-        <v>4278.616</v>
+        <v>41293.3248</v>
       </c>
       <c r="G75" t="n">
-        <v>2400952.386448352</v>
+        <v>655100.6886483514</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>7.2</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3514,32 +3126,38 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>7.45</v>
+        <v>7.25</v>
       </c>
       <c r="C76" t="n">
-        <v>7.45</v>
+        <v>7.2</v>
       </c>
       <c r="D76" t="n">
-        <v>7.45</v>
+        <v>7.25</v>
       </c>
       <c r="E76" t="n">
-        <v>7.45</v>
+        <v>7.2</v>
       </c>
       <c r="F76" t="n">
-        <v>25520.914</v>
+        <v>65711.41650000001</v>
       </c>
       <c r="G76" t="n">
-        <v>2426473.300448352</v>
+        <v>655100.6886483514</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>7.2</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3550,32 +3168,38 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7.41</v>
+        <v>7.32</v>
       </c>
       <c r="C77" t="n">
-        <v>7.4</v>
+        <v>7.32</v>
       </c>
       <c r="D77" t="n">
-        <v>7.41</v>
+        <v>7.32</v>
       </c>
       <c r="E77" t="n">
-        <v>7.4</v>
+        <v>7.32</v>
       </c>
       <c r="F77" t="n">
-        <v>27222.2017</v>
+        <v>11525.1471</v>
       </c>
       <c r="G77" t="n">
-        <v>2399251.098748351</v>
+        <v>666625.8357483513</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>7.2</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3586,32 +3210,38 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>7.47</v>
+        <v>7.33</v>
       </c>
       <c r="C78" t="n">
-        <v>7.47</v>
+        <v>7.33</v>
       </c>
       <c r="D78" t="n">
-        <v>7.47</v>
+        <v>7.33</v>
       </c>
       <c r="E78" t="n">
-        <v>7.47</v>
+        <v>7.33</v>
       </c>
       <c r="F78" t="n">
-        <v>8597.108399999999</v>
+        <v>36370.4165</v>
       </c>
       <c r="G78" t="n">
-        <v>2407848.207148351</v>
+        <v>702996.2522483513</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>7.32</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3622,32 +3252,38 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7.39</v>
+        <v>7.33</v>
       </c>
       <c r="C79" t="n">
         <v>7.39</v>
       </c>
       <c r="D79" t="n">
-        <v>7.39</v>
+        <v>7.4</v>
       </c>
       <c r="E79" t="n">
-        <v>7.39</v>
+        <v>7.33</v>
       </c>
       <c r="F79" t="n">
-        <v>3993.6069</v>
+        <v>83531.4743</v>
       </c>
       <c r="G79" t="n">
-        <v>2403854.600248351</v>
+        <v>786527.7265483513</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>7.33</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3658,32 +3294,38 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7.32</v>
+        <v>7.39</v>
       </c>
       <c r="C80" t="n">
-        <v>7.23</v>
+        <v>7.41</v>
       </c>
       <c r="D80" t="n">
-        <v>7.32</v>
+        <v>7.41</v>
       </c>
       <c r="E80" t="n">
-        <v>7.23</v>
+        <v>7.39</v>
       </c>
       <c r="F80" t="n">
-        <v>18183.627</v>
+        <v>154186.9783</v>
       </c>
       <c r="G80" t="n">
-        <v>2385670.973248351</v>
+        <v>940714.7048483513</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>7.39</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3694,32 +3336,38 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>7.3</v>
+        <v>7.39</v>
       </c>
       <c r="C81" t="n">
-        <v>7.31</v>
+        <v>7.39</v>
       </c>
       <c r="D81" t="n">
-        <v>7.31</v>
+        <v>7.39</v>
       </c>
       <c r="E81" t="n">
-        <v>7.3</v>
+        <v>7.39</v>
       </c>
       <c r="F81" t="n">
-        <v>5123</v>
+        <v>31426.2422</v>
       </c>
       <c r="G81" t="n">
-        <v>2390793.973248351</v>
+        <v>909288.4626483513</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3730,32 +3378,38 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="C82" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="D82" t="n">
-        <v>7.31</v>
+        <v>7.4</v>
       </c>
       <c r="E82" t="n">
-        <v>7.3</v>
+        <v>7.33</v>
       </c>
       <c r="F82" t="n">
-        <v>164813.9681</v>
+        <v>79477.75290000001</v>
       </c>
       <c r="G82" t="n">
-        <v>2225980.005148351</v>
+        <v>988766.2155483513</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>7.39</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3766,32 +3420,38 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>7.27</v>
+        <v>7.41</v>
       </c>
       <c r="C83" t="n">
-        <v>7.24</v>
+        <v>7.43</v>
       </c>
       <c r="D83" t="n">
-        <v>7.27</v>
+        <v>7.43</v>
       </c>
       <c r="E83" t="n">
-        <v>7.24</v>
+        <v>7.41</v>
       </c>
       <c r="F83" t="n">
-        <v>77989.9474</v>
+        <v>706251.5220999999</v>
       </c>
       <c r="G83" t="n">
-        <v>2147990.057748351</v>
+        <v>1695017.737648351</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>7.4</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3802,22 +3462,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>7.25</v>
+        <v>7.4</v>
       </c>
       <c r="C84" t="n">
-        <v>7.24</v>
+        <v>7.4</v>
       </c>
       <c r="D84" t="n">
-        <v>7.25</v>
+        <v>7.4</v>
       </c>
       <c r="E84" t="n">
-        <v>7.24</v>
+        <v>7.4</v>
       </c>
       <c r="F84" t="n">
-        <v>72071.7966</v>
+        <v>35403.8643</v>
       </c>
       <c r="G84" t="n">
-        <v>2147990.057748351</v>
+        <v>1659613.873348351</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3827,7 +3487,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3838,7 +3502,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>7.34</v>
+        <v>7.4</v>
       </c>
       <c r="C85" t="n">
         <v>7.4</v>
@@ -3847,13 +3511,13 @@
         <v>7.4</v>
       </c>
       <c r="E85" t="n">
-        <v>7.34</v>
+        <v>7.4</v>
       </c>
       <c r="F85" t="n">
-        <v>138497.7892</v>
+        <v>16045.608</v>
       </c>
       <c r="G85" t="n">
-        <v>2286487.846948351</v>
+        <v>1659613.873348351</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3863,7 +3527,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3874,36 +3542,36 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>7.4</v>
+        <v>7.43</v>
       </c>
       <c r="C86" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="D86" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="E86" t="n">
-        <v>7.4</v>
+        <v>7.43</v>
       </c>
       <c r="F86" t="n">
-        <v>2702.7</v>
+        <v>194871.3007</v>
       </c>
       <c r="G86" t="n">
-        <v>2286487.846948351</v>
+        <v>1854485.174048351</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K86" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3917,35 +3585,31 @@
         <v>7.4</v>
       </c>
       <c r="C87" t="n">
-        <v>7.4</v>
+        <v>7.45</v>
       </c>
       <c r="D87" t="n">
-        <v>7.4</v>
+        <v>7.45</v>
       </c>
       <c r="E87" t="n">
         <v>7.4</v>
       </c>
       <c r="F87" t="n">
-        <v>2702.7</v>
+        <v>56904.5363</v>
       </c>
       <c r="G87" t="n">
-        <v>2286487.846948351</v>
+        <v>1797580.637748351</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K87" t="n">
-        <v>7.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M87" t="n">
@@ -3958,38 +3622,34 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7.41</v>
+        <v>7.45</v>
       </c>
       <c r="C88" t="n">
-        <v>7.41</v>
+        <v>7.5</v>
       </c>
       <c r="D88" t="n">
-        <v>7.41</v>
+        <v>7.5</v>
       </c>
       <c r="E88" t="n">
-        <v>7.41</v>
+        <v>7.45</v>
       </c>
       <c r="F88" t="n">
-        <v>3962.9542</v>
+        <v>274399.828</v>
       </c>
       <c r="G88" t="n">
-        <v>2290450.801148351</v>
+        <v>2071980.465748351</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K88" t="n">
-        <v>7.4</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M88" t="n">
@@ -4002,36 +3662,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7.41</v>
+        <v>7.5</v>
       </c>
       <c r="C89" t="n">
-        <v>7.41</v>
+        <v>7.55</v>
       </c>
       <c r="D89" t="n">
-        <v>7.41</v>
+        <v>7.55</v>
       </c>
       <c r="E89" t="n">
-        <v>7.41</v>
+        <v>7.5</v>
       </c>
       <c r="F89" t="n">
-        <v>23259.2475</v>
+        <v>256481.2336</v>
       </c>
       <c r="G89" t="n">
-        <v>2290450.801148351</v>
+        <v>2328461.699348351</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="K89" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4042,38 +3702,34 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>7.41</v>
+        <v>7.55</v>
       </c>
       <c r="C90" t="n">
-        <v>7.41</v>
+        <v>7.61</v>
       </c>
       <c r="D90" t="n">
-        <v>7.41</v>
+        <v>7.61</v>
       </c>
       <c r="E90" t="n">
-        <v>7.41</v>
+        <v>7.55</v>
       </c>
       <c r="F90" t="n">
-        <v>132299.1629</v>
+        <v>359240.9884</v>
       </c>
       <c r="G90" t="n">
-        <v>2290450.801148351</v>
+        <v>2687702.687748351</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="K90" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M90" t="n">
@@ -4086,22 +3742,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>7.35</v>
+        <v>7.59</v>
       </c>
       <c r="C91" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="D91" t="n">
-        <v>7.35</v>
+        <v>7.6</v>
       </c>
       <c r="E91" t="n">
-        <v>7.3</v>
+        <v>7.54</v>
       </c>
       <c r="F91" t="n">
-        <v>39211.601</v>
+        <v>13228.1553</v>
       </c>
       <c r="G91" t="n">
-        <v>2251239.200148351</v>
+        <v>2674474.532448351</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4110,12 +3766,10 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M91" t="n">
@@ -4128,41 +3782,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7.25</v>
+        <v>7.59</v>
       </c>
       <c r="C92" t="n">
-        <v>7.24</v>
+        <v>7.61</v>
       </c>
       <c r="D92" t="n">
-        <v>7.25</v>
+        <v>7.61</v>
       </c>
       <c r="E92" t="n">
-        <v>7.24</v>
+        <v>7.59</v>
       </c>
       <c r="F92" t="n">
-        <v>18995.3633</v>
+        <v>75361.0205</v>
       </c>
       <c r="G92" t="n">
-        <v>2232243.836848352</v>
+        <v>2749835.552948351</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
+      <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
@@ -4170,40 +3820,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>7.3</v>
+        <v>7.59</v>
       </c>
       <c r="C93" t="n">
-        <v>7.3</v>
+        <v>7.61</v>
       </c>
       <c r="D93" t="n">
-        <v>7.3</v>
+        <v>7.61</v>
       </c>
       <c r="E93" t="n">
-        <v>7.3</v>
+        <v>7.59</v>
       </c>
       <c r="F93" t="n">
-        <v>10427.3859</v>
+        <v>34777.4225</v>
       </c>
       <c r="G93" t="n">
-        <v>2242671.222748352</v>
+        <v>2749835.552948351</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="K93" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4214,40 +3856,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>7.3</v>
+        <v>7.61</v>
       </c>
       <c r="C94" t="n">
-        <v>7.3</v>
+        <v>7.69</v>
       </c>
       <c r="D94" t="n">
-        <v>7.3</v>
+        <v>7.69</v>
       </c>
       <c r="E94" t="n">
-        <v>7.3</v>
+        <v>7.61</v>
       </c>
       <c r="F94" t="n">
-        <v>7820.5395</v>
+        <v>30391.4766</v>
       </c>
       <c r="G94" t="n">
-        <v>2242671.222748352</v>
+        <v>2780227.029548351</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="K94" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4258,38 +3892,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>7.39</v>
+        <v>7.69</v>
       </c>
       <c r="C95" t="n">
-        <v>7.39</v>
+        <v>7.7</v>
       </c>
       <c r="D95" t="n">
-        <v>7.39</v>
+        <v>7.72</v>
       </c>
       <c r="E95" t="n">
-        <v>7.39</v>
+        <v>7.61</v>
       </c>
       <c r="F95" t="n">
-        <v>15123.3448</v>
+        <v>373161.5658</v>
       </c>
       <c r="G95" t="n">
-        <v>2257794.567548352</v>
+        <v>3153388.595348351</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4300,38 +3928,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>7.39</v>
+        <v>7.7</v>
       </c>
       <c r="C96" t="n">
-        <v>7.4</v>
+        <v>7.65</v>
       </c>
       <c r="D96" t="n">
-        <v>7.4</v>
+        <v>7.79</v>
       </c>
       <c r="E96" t="n">
-        <v>7.39</v>
+        <v>7.65</v>
       </c>
       <c r="F96" t="n">
-        <v>235163.3783</v>
+        <v>162243.7016</v>
       </c>
       <c r="G96" t="n">
-        <v>2492957.945848352</v>
+        <v>2991144.893748351</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4342,40 +3964,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>7.4</v>
+        <v>7.65</v>
       </c>
       <c r="C97" t="n">
-        <v>7.4</v>
+        <v>7.67</v>
       </c>
       <c r="D97" t="n">
-        <v>7.4</v>
+        <v>7.79</v>
       </c>
       <c r="E97" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="F97" t="n">
-        <v>95073.5414</v>
+        <v>245728.0021</v>
       </c>
       <c r="G97" t="n">
-        <v>2492957.945848352</v>
+        <v>3236872.895848352</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K97" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4386,38 +4000,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>7.33</v>
+        <v>7.6</v>
       </c>
       <c r="C98" t="n">
-        <v>7.33</v>
+        <v>7.6</v>
       </c>
       <c r="D98" t="n">
-        <v>7.33</v>
+        <v>7.6</v>
       </c>
       <c r="E98" t="n">
-        <v>7.33</v>
+        <v>7.6</v>
       </c>
       <c r="F98" t="n">
-        <v>470.5663</v>
+        <v>88554.7064</v>
       </c>
       <c r="G98" t="n">
-        <v>2492487.379548352</v>
+        <v>3148318.189448352</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4428,40 +4036,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="C99" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="D99" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="E99" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="F99" t="n">
-        <v>13513.5</v>
+        <v>145654.5804</v>
       </c>
       <c r="G99" t="n">
-        <v>2506000.879548352</v>
+        <v>3002663.609048352</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K99" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4472,38 +4072,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>7.4</v>
+        <v>7.48</v>
       </c>
       <c r="C100" t="n">
         <v>7.4</v>
       </c>
       <c r="D100" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="E100" t="n">
         <v>7.4</v>
       </c>
       <c r="F100" t="n">
-        <v>72071.7966</v>
+        <v>214308.19</v>
       </c>
       <c r="G100" t="n">
-        <v>2506000.879548352</v>
+        <v>2788355.419048352</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4514,38 +4108,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="C101" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="D101" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="E101" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="F101" t="n">
-        <v>144143.5932</v>
+        <v>11</v>
       </c>
       <c r="G101" t="n">
-        <v>2506000.879548352</v>
+        <v>2788366.419048352</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4556,38 +4144,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>7.33</v>
+        <v>7.4</v>
       </c>
       <c r="C102" t="n">
-        <v>7.33</v>
+        <v>7.4</v>
       </c>
       <c r="D102" t="n">
-        <v>7.33</v>
+        <v>7.48</v>
       </c>
       <c r="E102" t="n">
-        <v>7.33</v>
+        <v>7.39</v>
       </c>
       <c r="F102" t="n">
-        <v>4346.4615</v>
+        <v>387505.1576</v>
       </c>
       <c r="G102" t="n">
-        <v>2501654.418048352</v>
+        <v>2400861.261448352</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4598,22 +4180,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>7.36</v>
+        <v>7.4</v>
       </c>
       <c r="C103" t="n">
-        <v>7.32</v>
+        <v>7.41</v>
       </c>
       <c r="D103" t="n">
-        <v>7.36</v>
+        <v>7.41</v>
       </c>
       <c r="E103" t="n">
-        <v>7.32</v>
+        <v>7.4</v>
       </c>
       <c r="F103" t="n">
-        <v>152764.096</v>
+        <v>91.125</v>
       </c>
       <c r="G103" t="n">
-        <v>2348890.322048352</v>
+        <v>2400952.386448352</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4622,14 +4204,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4640,72 +4216,64 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="C104" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="D104" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="E104" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="F104" t="n">
-        <v>10998.331</v>
+        <v>4278.616</v>
       </c>
       <c r="G104" t="n">
-        <v>2359888.653048351</v>
+        <v>2400952.386448352</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>0.9936504723346828</v>
-      </c>
-      <c r="N104" t="n">
-        <v>1.087988826815642</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>7.41</v>
+        <v>7.45</v>
       </c>
       <c r="C105" t="n">
-        <v>7.43</v>
+        <v>7.45</v>
       </c>
       <c r="D105" t="n">
-        <v>7.43</v>
+        <v>7.45</v>
       </c>
       <c r="E105" t="n">
-        <v>7.39</v>
+        <v>7.45</v>
       </c>
       <c r="F105" t="n">
-        <v>334539.2231</v>
+        <v>25520.914</v>
       </c>
       <c r="G105" t="n">
-        <v>2694427.876148351</v>
+        <v>2426473.300448352</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4720,28 +4288,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>7.45</v>
+        <v>7.41</v>
       </c>
       <c r="C106" t="n">
-        <v>7.46</v>
+        <v>7.4</v>
       </c>
       <c r="D106" t="n">
-        <v>7.46</v>
+        <v>7.41</v>
       </c>
       <c r="E106" t="n">
-        <v>7.45</v>
+        <v>7.4</v>
       </c>
       <c r="F106" t="n">
-        <v>14808.964</v>
+        <v>27222.2017</v>
       </c>
       <c r="G106" t="n">
-        <v>2709236.840148352</v>
+        <v>2399251.098748351</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4756,28 +4324,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>7.49</v>
+        <v>7.47</v>
       </c>
       <c r="C107" t="n">
-        <v>7.49</v>
+        <v>7.47</v>
       </c>
       <c r="D107" t="n">
-        <v>7.49</v>
+        <v>7.47</v>
       </c>
       <c r="E107" t="n">
-        <v>7.49</v>
+        <v>7.47</v>
       </c>
       <c r="F107" t="n">
-        <v>14072.964</v>
+        <v>8597.108399999999</v>
       </c>
       <c r="G107" t="n">
-        <v>2723309.804148352</v>
+        <v>2407848.207148351</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4792,22 +4360,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>7.5</v>
+        <v>7.39</v>
       </c>
       <c r="C108" t="n">
-        <v>7.5</v>
+        <v>7.39</v>
       </c>
       <c r="D108" t="n">
-        <v>7.5</v>
+        <v>7.39</v>
       </c>
       <c r="E108" t="n">
-        <v>7.5</v>
+        <v>7.39</v>
       </c>
       <c r="F108" t="n">
-        <v>368044.0951</v>
+        <v>3993.6069</v>
       </c>
       <c r="G108" t="n">
-        <v>3091353.899248352</v>
+        <v>2403854.600248351</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4828,22 +4396,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>7.49</v>
+        <v>7.32</v>
       </c>
       <c r="C109" t="n">
-        <v>7.49</v>
+        <v>7.23</v>
       </c>
       <c r="D109" t="n">
-        <v>7.49</v>
+        <v>7.32</v>
       </c>
       <c r="E109" t="n">
-        <v>7.49</v>
+        <v>7.23</v>
       </c>
       <c r="F109" t="n">
-        <v>364115.0666</v>
+        <v>18183.627</v>
       </c>
       <c r="G109" t="n">
-        <v>2727238.832648352</v>
+        <v>2385670.973248351</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4864,28 +4432,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>7.49</v>
+        <v>7.3</v>
       </c>
       <c r="C110" t="n">
-        <v>7.49</v>
+        <v>7.31</v>
       </c>
       <c r="D110" t="n">
-        <v>7.49</v>
+        <v>7.31</v>
       </c>
       <c r="E110" t="n">
-        <v>7.49</v>
+        <v>7.3</v>
       </c>
       <c r="F110" t="n">
-        <v>4769</v>
+        <v>5123</v>
       </c>
       <c r="G110" t="n">
-        <v>2727238.832648352</v>
+        <v>2390793.973248351</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4900,28 +4468,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>7.5</v>
+        <v>7.31</v>
       </c>
       <c r="C111" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="D111" t="n">
-        <v>7.5</v>
+        <v>7.31</v>
       </c>
       <c r="E111" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="F111" t="n">
-        <v>80707.4666</v>
+        <v>164813.9681</v>
       </c>
       <c r="G111" t="n">
-        <v>2807946.299248352</v>
+        <v>2225980.005148351</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4936,28 +4504,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>7.5</v>
+        <v>7.27</v>
       </c>
       <c r="C112" t="n">
-        <v>7.5</v>
+        <v>7.24</v>
       </c>
       <c r="D112" t="n">
-        <v>7.5</v>
+        <v>7.27</v>
       </c>
       <c r="E112" t="n">
-        <v>7.5</v>
+        <v>7.24</v>
       </c>
       <c r="F112" t="n">
-        <v>407418.7499</v>
+        <v>77989.9474</v>
       </c>
       <c r="G112" t="n">
-        <v>2807946.299248352</v>
+        <v>2147990.057748351</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4972,28 +4540,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>7.5</v>
+        <v>7.25</v>
       </c>
       <c r="C113" t="n">
-        <v>7.5</v>
+        <v>7.24</v>
       </c>
       <c r="D113" t="n">
-        <v>7.5</v>
+        <v>7.25</v>
       </c>
       <c r="E113" t="n">
-        <v>7.5</v>
+        <v>7.24</v>
       </c>
       <c r="F113" t="n">
-        <v>82250.2834</v>
+        <v>72071.7966</v>
       </c>
       <c r="G113" t="n">
-        <v>2807946.299248352</v>
+        <v>2147990.057748351</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -5008,28 +4576,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>7.51</v>
+        <v>7.34</v>
       </c>
       <c r="C114" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="D114" t="n">
-        <v>7.51</v>
+        <v>7.4</v>
       </c>
       <c r="E114" t="n">
-        <v>7.5</v>
+        <v>7.34</v>
       </c>
       <c r="F114" t="n">
-        <v>126569.7816</v>
+        <v>138497.7892</v>
       </c>
       <c r="G114" t="n">
-        <v>2807946.299248352</v>
+        <v>2286487.846948351</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -5044,28 +4612,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="C115" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="D115" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="E115" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="F115" t="n">
-        <v>228301.3981</v>
+        <v>2702.7</v>
       </c>
       <c r="G115" t="n">
-        <v>2807946.299248352</v>
+        <v>2286487.846948351</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -5080,28 +4648,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>7.49</v>
+        <v>7.4</v>
       </c>
       <c r="C116" t="n">
-        <v>7.49</v>
+        <v>7.4</v>
       </c>
       <c r="D116" t="n">
-        <v>7.49</v>
+        <v>7.4</v>
       </c>
       <c r="E116" t="n">
-        <v>7.49</v>
+        <v>7.4</v>
       </c>
       <c r="F116" t="n">
-        <v>4040.2712</v>
+        <v>2702.7</v>
       </c>
       <c r="G116" t="n">
-        <v>2803906.028048352</v>
+        <v>2286487.846948351</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -5116,28 +4684,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>7.51</v>
+        <v>7.41</v>
       </c>
       <c r="C117" t="n">
-        <v>7.51</v>
+        <v>7.41</v>
       </c>
       <c r="D117" t="n">
-        <v>7.51</v>
+        <v>7.41</v>
       </c>
       <c r="E117" t="n">
-        <v>7.51</v>
+        <v>7.41</v>
       </c>
       <c r="F117" t="n">
-        <v>112353.7237</v>
+        <v>3962.9542</v>
       </c>
       <c r="G117" t="n">
-        <v>2916259.751748352</v>
+        <v>2290450.801148351</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -5152,28 +4720,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>7.52</v>
+        <v>7.41</v>
       </c>
       <c r="C118" t="n">
-        <v>7.52</v>
+        <v>7.41</v>
       </c>
       <c r="D118" t="n">
-        <v>7.52</v>
+        <v>7.41</v>
       </c>
       <c r="E118" t="n">
-        <v>7.52</v>
+        <v>7.41</v>
       </c>
       <c r="F118" t="n">
-        <v>250.525</v>
+        <v>23259.2475</v>
       </c>
       <c r="G118" t="n">
-        <v>2916510.276748352</v>
+        <v>2290450.801148351</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -5188,28 +4756,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>7.52</v>
+        <v>7.41</v>
       </c>
       <c r="C119" t="n">
-        <v>7.52</v>
+        <v>7.41</v>
       </c>
       <c r="D119" t="n">
-        <v>7.52</v>
+        <v>7.41</v>
       </c>
       <c r="E119" t="n">
-        <v>7.52</v>
+        <v>7.41</v>
       </c>
       <c r="F119" t="n">
-        <v>8000</v>
+        <v>132299.1629</v>
       </c>
       <c r="G119" t="n">
-        <v>2916510.276748352</v>
+        <v>2290450.801148351</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -5224,28 +4792,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>7.52</v>
+        <v>7.35</v>
       </c>
       <c r="C120" t="n">
-        <v>7.52</v>
+        <v>7.3</v>
       </c>
       <c r="D120" t="n">
-        <v>7.52</v>
+        <v>7.35</v>
       </c>
       <c r="E120" t="n">
-        <v>7.52</v>
+        <v>7.3</v>
       </c>
       <c r="F120" t="n">
-        <v>8780.053099999999</v>
+        <v>39211.601</v>
       </c>
       <c r="G120" t="n">
-        <v>2916510.276748352</v>
+        <v>2251239.200148351</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5255,6 +4823,1050 @@
       </c>
       <c r="N120" t="inlineStr"/>
     </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="C121" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="D121" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="E121" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="F121" t="n">
+        <v>18995.3633</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2232243.836848352</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C122" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D122" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E122" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F122" t="n">
+        <v>10427.3859</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2242671.222748352</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C123" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D123" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E123" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F123" t="n">
+        <v>7820.5395</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2242671.222748352</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="C124" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="D124" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="E124" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="F124" t="n">
+        <v>15123.3448</v>
+      </c>
+      <c r="G124" t="n">
+        <v>2257794.567548352</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="C125" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D125" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E125" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="F125" t="n">
+        <v>235163.3783</v>
+      </c>
+      <c r="G125" t="n">
+        <v>2492957.945848352</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C126" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D126" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E126" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>95073.5414</v>
+      </c>
+      <c r="G126" t="n">
+        <v>2492957.945848352</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="C127" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="D127" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="E127" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="F127" t="n">
+        <v>470.5663</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2492487.379548352</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C128" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D128" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E128" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F128" t="n">
+        <v>13513.5</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2506000.879548352</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C129" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D129" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E129" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F129" t="n">
+        <v>72071.7966</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2506000.879548352</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C130" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D130" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E130" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>144143.5932</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2506000.879548352</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="C131" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="D131" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="E131" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4346.4615</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2501654.418048352</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="C132" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="D132" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="E132" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="F132" t="n">
+        <v>152764.096</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2348890.322048352</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C133" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D133" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E133" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F133" t="n">
+        <v>10998.331</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2359888.653048351</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="C134" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="D134" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="E134" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="F134" t="n">
+        <v>334539.2231</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2694427.876148351</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="C135" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="D135" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="E135" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="F135" t="n">
+        <v>14808.964</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2709236.840148352</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="C136" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="D136" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="E136" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="F136" t="n">
+        <v>14072.964</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2723309.804148352</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C137" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E137" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>368044.0951</v>
+      </c>
+      <c r="G137" t="n">
+        <v>3091353.899248352</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="C138" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="D138" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="E138" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="F138" t="n">
+        <v>364115.0666</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2727238.832648352</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="C139" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="D139" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="E139" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="F139" t="n">
+        <v>4769</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2727238.832648352</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C140" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E140" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>80707.4666</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2807946.299248352</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E141" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>407418.7499</v>
+      </c>
+      <c r="G141" t="n">
+        <v>2807946.299248352</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>82250.2834</v>
+      </c>
+      <c r="G142" t="n">
+        <v>2807946.299248352</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="C143" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="E143" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>126569.7816</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2807946.299248352</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>228301.3981</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2807946.299248352</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="C145" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="D145" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="E145" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4040.2712</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2803906.028048352</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="C146" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="D146" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="E146" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="F146" t="n">
+        <v>112353.7237</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2916259.751748352</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="C147" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="D147" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="E147" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="F147" t="n">
+        <v>250.525</v>
+      </c>
+      <c r="G147" t="n">
+        <v>2916510.276748352</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="C148" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="D148" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="E148" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="F148" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G148" t="n">
+        <v>2916510.276748352</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="C149" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="D149" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="E149" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="F149" t="n">
+        <v>8780.053099999999</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2916510.276748352</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-01 BackTest ZIL.xlsx
+++ b/BackTest/2019-11-01 BackTest ZIL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>1480548.671848352</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,21 @@
         <v>2135584.567348352</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.57</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +523,21 @@
         <v>2892646.770848352</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>7.61</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +564,17 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +601,17 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +638,17 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +675,17 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +712,17 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +749,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +786,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +823,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +860,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +897,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +934,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +971,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +1008,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1045,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1082,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1119,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1156,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1193,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1230,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1267,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1304,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1341,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1378,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1415,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1452,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1489,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1526,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1563,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1600,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1637,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1674,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1711,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1748,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1785,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1822,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1859,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1896,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1933,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1970,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +2007,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +2044,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +2081,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +2118,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2155,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2192,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2229,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2266,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2303,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2340,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2377,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2414,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2451,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2488,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2525,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2562,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2599,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2636,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2673,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2710,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2747,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2784,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2821,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2858,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2895,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2932,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2969,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +3006,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,24 +3041,19 @@
         <v>611634.0309483514</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3018,24 +3078,19 @@
         <v>611634.0309483514</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3060,24 +3115,19 @@
         <v>655100.6886483514</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3102,24 +3152,19 @@
         <v>655100.6886483514</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3144,24 +3189,19 @@
         <v>655100.6886483514</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3186,24 +3226,19 @@
         <v>666625.8357483513</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3228,24 +3263,19 @@
         <v>702996.2522483513</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3270,24 +3300,19 @@
         <v>786527.7265483513</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3312,24 +3337,19 @@
         <v>940714.7048483513</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3354,24 +3374,19 @@
         <v>909288.4626483513</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3396,24 +3411,19 @@
         <v>988766.2155483513</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3438,24 +3448,19 @@
         <v>1695017.737648351</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3482,20 +3487,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3522,20 +3524,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3562,20 +3561,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3602,20 +3598,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3640,22 +3633,19 @@
         <v>2071980.465748351</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3682,20 +3672,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3722,20 +3709,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3760,22 +3744,19 @@
         <v>2674474.532448351</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3800,20 +3781,19 @@
         <v>2749835.552948351</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
       </c>
       <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3838,18 +3818,17 @@
         <v>2749835.552948351</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3874,18 +3853,15 @@
         <v>2780227.029548351</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3910,18 +3886,15 @@
         <v>3153388.595348351</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3946,18 +3919,15 @@
         <v>2991144.893748351</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3982,18 +3952,15 @@
         <v>3236872.895848352</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4018,18 +3985,15 @@
         <v>3148318.189448352</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4054,18 +4018,15 @@
         <v>3002663.609048352</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4090,18 +4051,15 @@
         <v>2788355.419048352</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4128,16 +4086,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4162,18 +4117,15 @@
         <v>2400861.261448352</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4198,18 +4150,15 @@
         <v>2400952.386448352</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4236,16 +4185,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4272,16 +4218,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4308,16 +4251,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4344,16 +4284,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4378,18 +4315,15 @@
         <v>2403854.600248351</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4416,16 +4350,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4450,18 +4381,15 @@
         <v>2390793.973248351</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4488,16 +4416,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4524,16 +4449,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4560,16 +4482,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4596,16 +4515,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4632,16 +4548,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4666,18 +4579,15 @@
         <v>2286487.846948351</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4702,18 +4612,15 @@
         <v>2290450.801148351</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4738,18 +4645,15 @@
         <v>2290450.801148351</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4774,18 +4678,15 @@
         <v>2290450.801148351</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4812,16 +4713,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4848,16 +4746,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4884,16 +4779,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4920,16 +4812,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4954,18 +4843,15 @@
         <v>2257794.567548352</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4992,16 +4878,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5026,18 +4909,15 @@
         <v>2492957.945848352</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5062,18 +4942,15 @@
         <v>2492487.379548352</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5100,16 +4977,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5136,16 +5010,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5172,16 +5043,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5206,18 +5074,15 @@
         <v>2501654.418048352</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5244,16 +5109,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5280,16 +5142,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5316,16 +5175,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5352,16 +5208,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5388,16 +5241,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5424,16 +5274,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5458,18 +5305,15 @@
         <v>2727238.832648352</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5496,16 +5340,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5532,16 +5373,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5566,18 +5404,15 @@
         <v>2807946.299248352</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5604,16 +5439,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5640,16 +5472,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5676,16 +5505,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5710,18 +5536,15 @@
         <v>2803906.028048352</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5746,18 +5569,15 @@
         <v>2916259.751748352</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5782,18 +5602,15 @@
         <v>2916510.276748352</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5818,18 +5635,15 @@
         <v>2916510.276748352</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5854,20 +5668,17 @@
         <v>2916510.276748352</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest ZIL.xlsx
+++ b/BackTest/2019-11-01 BackTest ZIL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1480548.671848352</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2135584.567348352</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>7.57</v>
@@ -523,7 +523,7 @@
         <v>2892646.770848352</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>7.61</v>
@@ -562,9 +562,11 @@
         <v>3131428.676048351</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.94</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -3078,9 +3080,11 @@
         <v>611634.0309483514</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>7.17</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3115,9 +3119,11 @@
         <v>655100.6886483514</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>7.17</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3152,9 +3158,11 @@
         <v>655100.6886483514</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>7.2</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3189,9 +3197,11 @@
         <v>655100.6886483514</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>7.2</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3226,9 +3236,11 @@
         <v>666625.8357483513</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>7.2</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3263,9 +3275,11 @@
         <v>702996.2522483513</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>7.32</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3300,9 +3314,11 @@
         <v>786527.7265483513</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>7.33</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3337,9 +3353,11 @@
         <v>940714.7048483513</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>7.39</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3374,9 +3392,11 @@
         <v>909288.4626483513</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>7.41</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3411,9 +3431,11 @@
         <v>988766.2155483513</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>7.39</v>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3448,9 +3470,11 @@
         <v>1695017.737648351</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>7.4</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3522,9 +3546,11 @@
         <v>1659613.873348351</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>7.4</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3559,9 +3585,11 @@
         <v>1854485.174048351</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>7.4</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3633,7 +3661,7 @@
         <v>2071980.465748351</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3744,7 +3772,7 @@
         <v>2674474.532448351</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3781,7 +3809,7 @@
         <v>2749835.552948351</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3818,16 +3846,18 @@
         <v>2749835.552948351</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
       <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
@@ -3853,11 +3883,15 @@
         <v>2780227.029548351</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3886,11 +3920,15 @@
         <v>3153388.595348351</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3919,11 +3957,15 @@
         <v>2991144.893748351</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3952,11 +3994,15 @@
         <v>3236872.895848352</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3985,11 +4031,15 @@
         <v>3148318.189448352</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4018,11 +4068,15 @@
         <v>3002663.609048352</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4051,11 +4105,15 @@
         <v>2788355.419048352</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4088,7 +4146,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4117,11 +4179,15 @@
         <v>2400861.261448352</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4150,11 +4216,15 @@
         <v>2400952.386448352</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4187,7 +4257,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4220,7 +4294,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4249,14 +4327,16 @@
         <v>2399251.098748351</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
@@ -4315,7 +4395,7 @@
         <v>2403854.600248351</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4348,7 +4428,7 @@
         <v>2385670.973248351</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4381,7 +4461,7 @@
         <v>2390793.973248351</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4579,7 +4659,7 @@
         <v>2286487.846948351</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4612,7 +4692,7 @@
         <v>2290450.801148351</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4645,7 +4725,7 @@
         <v>2290450.801148351</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4678,7 +4758,7 @@
         <v>2290450.801148351</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4711,7 +4791,7 @@
         <v>2251239.200148351</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4843,7 +4923,7 @@
         <v>2257794.567548352</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4909,7 +4989,7 @@
         <v>2492957.945848352</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4942,7 +5022,7 @@
         <v>2492487.379548352</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4975,7 +5055,7 @@
         <v>2506000.879548352</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5008,7 +5088,7 @@
         <v>2506000.879548352</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5041,7 +5121,7 @@
         <v>2506000.879548352</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5074,7 +5154,7 @@
         <v>2501654.418048352</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5107,7 +5187,7 @@
         <v>2348890.322048352</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5140,7 +5220,7 @@
         <v>2359888.653048351</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5173,7 +5253,7 @@
         <v>2694427.876148351</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5206,7 +5286,7 @@
         <v>2709236.840148352</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5239,7 +5319,7 @@
         <v>2723309.804148352</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5272,7 +5352,7 @@
         <v>3091353.899248352</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5305,7 +5385,7 @@
         <v>2727238.832648352</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5338,7 +5418,7 @@
         <v>2727238.832648352</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5371,7 +5451,7 @@
         <v>2807946.299248352</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5404,7 +5484,7 @@
         <v>2807946.299248352</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5437,7 +5517,7 @@
         <v>2807946.299248352</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5470,7 +5550,7 @@
         <v>2807946.299248352</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5503,7 +5583,7 @@
         <v>2807946.299248352</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5536,7 +5616,7 @@
         <v>2803906.028048352</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5569,7 +5649,7 @@
         <v>2916259.751748352</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5602,7 +5682,7 @@
         <v>2916510.276748352</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5635,7 +5715,7 @@
         <v>2916510.276748352</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5668,7 +5748,7 @@
         <v>2916510.276748352</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5679,6 +5759,6 @@
       <c r="M149" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest ZIL.xlsx
+++ b/BackTest/2019-11-01 BackTest ZIL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1480548.671848352</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>2135584.567348352</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>2892646.770848352</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7.61</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>3131428.676048351</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7.94</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,15 +583,11 @@
         <v>3005818.221148352</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -642,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -716,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -753,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -790,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -827,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -864,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -901,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -938,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -975,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1049,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1082,15 +1012,11 @@
         <v>1368443.231448351</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1123,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1160,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1197,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1234,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1271,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1304,15 +1210,11 @@
         <v>1233780.381348351</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1341,15 +1243,11 @@
         <v>1197629.082748351</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1378,15 +1276,11 @@
         <v>1197629.082748351</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1419,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1452,15 +1342,11 @@
         <v>1161246.598048351</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1489,15 +1375,11 @@
         <v>1115758.187448351</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1530,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1563,15 +1441,11 @@
         <v>1035625.346548351</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1604,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1637,15 +1507,11 @@
         <v>1035625.346548351</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1678,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1711,15 +1573,11 @@
         <v>974491.7763483515</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1752,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1785,15 +1639,11 @@
         <v>979177.7840483515</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1826,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1863,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1900,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1937,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1974,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2011,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2048,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2085,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2122,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2159,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2196,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2270,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2307,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2344,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2381,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2418,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2455,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2492,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2529,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2566,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2603,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2640,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2677,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2714,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2751,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2788,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2825,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2862,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2899,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2936,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2973,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3010,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3047,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3080,17 +2794,11 @@
         <v>611634.0309483514</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>7.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3124,12 +2832,10 @@
       <c r="I74" t="n">
         <v>7.17</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3163,10 +2869,12 @@
       <c r="I75" t="n">
         <v>7.2</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>7.17</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -3202,10 +2910,12 @@
       <c r="I76" t="n">
         <v>7.2</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>7.17</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -3241,12 +2951,10 @@
       <c r="I77" t="n">
         <v>7.2</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3275,15 +2983,15 @@
         <v>702996.2522483513</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>7.2</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -3314,15 +3022,15 @@
         <v>786527.7265483513</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>7.2</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3353,17 +3061,11 @@
         <v>940714.7048483513</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3392,17 +3094,11 @@
         <v>909288.4626483513</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>7.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3431,17 +3127,11 @@
         <v>988766.2155483513</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>7.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3470,17 +3160,11 @@
         <v>1695017.737648351</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>7.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3513,11 +3197,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3546,17 +3226,11 @@
         <v>1659613.873348351</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>7.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3585,17 +3259,11 @@
         <v>1854485.174048351</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>7.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3628,11 +3296,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3665,11 +3329,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3702,11 +3362,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3739,11 +3395,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3772,15 +3424,11 @@
         <v>2674474.532448351</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3809,15 +3457,11 @@
         <v>2749835.552948351</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3846,15 +3490,11 @@
         <v>2749835.552948351</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3883,15 +3523,11 @@
         <v>2780227.029548351</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3920,15 +3556,11 @@
         <v>3153388.595348351</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3957,15 +3589,11 @@
         <v>2991144.893748351</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3998,11 +3626,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4035,11 +3659,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4072,11 +3692,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4109,11 +3725,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4146,11 +3758,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4183,11 +3791,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4220,11 +3824,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4257,11 +3857,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4294,11 +3890,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4327,16 +3919,14 @@
         <v>2399251.098748351</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
       <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
@@ -4395,7 +3985,7 @@
         <v>2403854.600248351</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4428,7 +4018,7 @@
         <v>2385670.973248351</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4758,7 +4348,7 @@
         <v>2290450.801148351</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4791,7 +4381,7 @@
         <v>2251239.200148351</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5022,7 +4612,7 @@
         <v>2492487.379548352</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5055,7 +4645,7 @@
         <v>2506000.879548352</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5088,7 +4678,7 @@
         <v>2506000.879548352</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5121,7 +4711,7 @@
         <v>2506000.879548352</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5154,7 +4744,7 @@
         <v>2501654.418048352</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5187,7 +4777,7 @@
         <v>2348890.322048352</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5220,7 +4810,7 @@
         <v>2359888.653048351</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5253,7 +4843,7 @@
         <v>2694427.876148351</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5286,7 +4876,7 @@
         <v>2709236.840148352</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5319,7 +4909,7 @@
         <v>2723309.804148352</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5352,7 +4942,7 @@
         <v>3091353.899248352</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5385,7 +4975,7 @@
         <v>2727238.832648352</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5418,7 +5008,7 @@
         <v>2727238.832648352</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5451,7 +5041,7 @@
         <v>2807946.299248352</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5484,7 +5074,7 @@
         <v>2807946.299248352</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5517,7 +5107,7 @@
         <v>2807946.299248352</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5550,7 +5140,7 @@
         <v>2807946.299248352</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5583,7 +5173,7 @@
         <v>2807946.299248352</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5616,7 +5206,7 @@
         <v>2803906.028048352</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5649,7 +5239,7 @@
         <v>2916259.751748352</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5682,7 +5272,7 @@
         <v>2916510.276748352</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5715,7 +5305,7 @@
         <v>2916510.276748352</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5748,7 +5338,7 @@
         <v>2916510.276748352</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5759,6 +5349,6 @@
       <c r="M149" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest ZIL.xlsx
+++ b/BackTest/2019-11-01 BackTest ZIL.xlsx
@@ -451,7 +451,7 @@
         <v>1480548.671848352</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>2135584.567348352</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.57</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>2892646.770848352</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.61</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,15 @@
         <v>3131428.676048351</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +603,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +640,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +677,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +714,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +751,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +788,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +825,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +862,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +899,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +936,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +973,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1010,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1047,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1080,15 @@
         <v>1368443.231448351</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1121,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1158,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1195,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1232,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1269,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1302,15 @@
         <v>1233780.381348351</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1339,15 @@
         <v>1197629.082748351</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1376,15 @@
         <v>1197629.082748351</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1417,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1450,15 @@
         <v>1161246.598048351</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1487,15 @@
         <v>1115758.187448351</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1528,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1561,15 @@
         <v>1035625.346548351</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1602,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1635,15 @@
         <v>1035625.346548351</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1676,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1709,15 @@
         <v>974491.7763483515</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1750,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1783,15 @@
         <v>979177.7840483515</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1824,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1861,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1898,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1935,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1972,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2009,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2046,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2083,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2120,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2157,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2194,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2231,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2268,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2305,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2342,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2379,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2416,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2453,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2490,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2527,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2564,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2601,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2638,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2675,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2712,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2749,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2786,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2823,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2860,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2897,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2934,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2971,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +3008,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3045,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3082,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,15 +3115,15 @@
         <v>655100.6886483514</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="J74" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,17 +3152,13 @@
         <v>655100.6886483514</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J75" t="n">
-        <v>7.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -2905,17 +3189,13 @@
         <v>655100.6886483514</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J76" t="n">
-        <v>7.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -2946,15 +3226,15 @@
         <v>666625.8357483513</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2986,12 +3266,10 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>7.2</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -3025,12 +3303,10 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>7.2</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3065,7 +3341,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3098,7 +3378,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3131,7 +3415,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3164,7 +3452,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3197,7 +3489,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3230,7 +3526,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3263,7 +3563,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3296,7 +3600,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3329,7 +3637,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3362,7 +3674,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3395,7 +3711,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3424,11 +3744,15 @@
         <v>2674474.532448351</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3457,11 +3781,15 @@
         <v>2749835.552948351</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3490,11 +3818,15 @@
         <v>2749835.552948351</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3523,11 +3855,15 @@
         <v>2780227.029548351</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3560,10 +3896,12 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -3622,7 +3960,7 @@
         <v>3236872.895848352</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3655,7 +3993,7 @@
         <v>3148318.189448352</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3688,7 +4026,7 @@
         <v>3002663.609048352</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3721,7 +4059,7 @@
         <v>2788355.419048352</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3754,7 +4092,7 @@
         <v>2788366.419048352</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3787,7 +4125,7 @@
         <v>2400861.261448352</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>

--- a/BackTest/2019-11-01 BackTest ZIL.xlsx
+++ b/BackTest/2019-11-01 BackTest ZIL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:L149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>98453.8403</v>
       </c>
       <c r="G2" t="n">
-        <v>1480548.671848352</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,21 @@
         <v>655035.8955</v>
       </c>
       <c r="G3" t="n">
-        <v>2135584.567348352</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
         <v>7.57</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +509,21 @@
         <v>757062.2034999999</v>
       </c>
       <c r="G4" t="n">
-        <v>2892646.770848352</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
         <v>7.61</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,22 +545,19 @@
         <v>238781.9052</v>
       </c>
       <c r="G5" t="n">
-        <v>3131428.676048351</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -596,22 +579,19 @@
         <v>125610.4549</v>
       </c>
       <c r="G6" t="n">
-        <v>3005818.221148352</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -633,22 +613,19 @@
         <v>359097.0273</v>
       </c>
       <c r="G7" t="n">
-        <v>2646721.193848351</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -670,22 +647,19 @@
         <v>319135.0727</v>
       </c>
       <c r="G8" t="n">
-        <v>2327586.121148352</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,22 +681,19 @@
         <v>138927.471</v>
       </c>
       <c r="G9" t="n">
-        <v>2466513.592148351</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,22 +715,19 @@
         <v>812171.0868</v>
       </c>
       <c r="G10" t="n">
-        <v>1654342.505348351</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -781,22 +749,19 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>1654364.505348351</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,22 +783,19 @@
         <v>264.6575</v>
       </c>
       <c r="G12" t="n">
-        <v>1654099.847848351</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -855,22 +817,19 @@
         <v>159436.9757</v>
       </c>
       <c r="G13" t="n">
-        <v>1494662.872148351</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -892,22 +851,19 @@
         <v>388729.1432</v>
       </c>
       <c r="G14" t="n">
-        <v>1494662.872148351</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -929,22 +885,19 @@
         <v>86203.67660000001</v>
       </c>
       <c r="G15" t="n">
-        <v>1408459.195548351</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -966,22 +919,19 @@
         <v>190749.5991</v>
       </c>
       <c r="G16" t="n">
-        <v>1408459.195548351</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1003,22 +953,19 @@
         <v>19149.3318</v>
       </c>
       <c r="G17" t="n">
-        <v>1427608.527348351</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1040,22 +987,19 @@
         <v>135483.2928</v>
       </c>
       <c r="G18" t="n">
-        <v>1427608.527348351</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1077,22 +1021,19 @@
         <v>59165.2959</v>
       </c>
       <c r="G19" t="n">
-        <v>1368443.231448351</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1114,22 +1055,19 @@
         <v>12461.4712</v>
       </c>
       <c r="G20" t="n">
-        <v>1368443.231448351</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1151,22 +1089,19 @@
         <v>107166.5828</v>
       </c>
       <c r="G21" t="n">
-        <v>1261276.648648351</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1188,22 +1123,19 @@
         <v>75.375</v>
       </c>
       <c r="G22" t="n">
-        <v>1261352.023648351</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1225,22 +1157,19 @@
         <v>30910.3542</v>
       </c>
       <c r="G23" t="n">
-        <v>1261352.023648351</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1262,22 +1191,19 @@
         <v>20292.887</v>
       </c>
       <c r="G24" t="n">
-        <v>1281644.910648352</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1299,22 +1225,19 @@
         <v>47864.5293</v>
       </c>
       <c r="G25" t="n">
-        <v>1233780.381348351</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1336,22 +1259,19 @@
         <v>36151.2986</v>
       </c>
       <c r="G26" t="n">
-        <v>1197629.082748351</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1373,22 +1293,19 @@
         <v>35260.9564</v>
       </c>
       <c r="G27" t="n">
-        <v>1197629.082748351</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1410,22 +1327,19 @@
         <v>63642.5677</v>
       </c>
       <c r="G28" t="n">
-        <v>1133986.515048351</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1447,22 +1361,19 @@
         <v>27260.083</v>
       </c>
       <c r="G29" t="n">
-        <v>1161246.598048351</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1484,22 +1395,19 @@
         <v>45488.4106</v>
       </c>
       <c r="G30" t="n">
-        <v>1115758.187448351</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1521,22 +1429,19 @@
         <v>5754.2188</v>
       </c>
       <c r="G31" t="n">
-        <v>1110003.968648351</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1558,22 +1463,19 @@
         <v>74378.62209999999</v>
       </c>
       <c r="G32" t="n">
-        <v>1035625.346548351</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1595,22 +1497,19 @@
         <v>78276.64569999999</v>
       </c>
       <c r="G33" t="n">
-        <v>1035625.346548351</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1632,22 +1531,19 @@
         <v>42888.5363</v>
       </c>
       <c r="G34" t="n">
-        <v>1035625.346548351</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1669,22 +1565,19 @@
         <v>93305.2154</v>
       </c>
       <c r="G35" t="n">
-        <v>942320.1311483515</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1706,22 +1599,19 @@
         <v>32171.6452</v>
       </c>
       <c r="G36" t="n">
-        <v>974491.7763483515</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1743,22 +1633,19 @@
         <v>24428.1226</v>
       </c>
       <c r="G37" t="n">
-        <v>998919.8989483515</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1780,22 +1667,19 @@
         <v>19742.1149</v>
       </c>
       <c r="G38" t="n">
-        <v>979177.7840483515</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1817,22 +1701,19 @@
         <v>2552.9785</v>
       </c>
       <c r="G39" t="n">
-        <v>981730.7625483514</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1854,22 +1735,19 @@
         <v>150000</v>
       </c>
       <c r="G40" t="n">
-        <v>1131730.762548351</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1891,22 +1769,19 @@
         <v>96862.4374</v>
       </c>
       <c r="G41" t="n">
-        <v>1034868.325148351</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1928,22 +1803,19 @@
         <v>149625</v>
       </c>
       <c r="G42" t="n">
-        <v>1034868.325148351</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1965,22 +1837,19 @@
         <v>106137.889</v>
       </c>
       <c r="G43" t="n">
-        <v>1034868.325148351</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2002,22 +1871,19 @@
         <v>50</v>
       </c>
       <c r="G44" t="n">
-        <v>1034918.325148351</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2039,22 +1905,19 @@
         <v>60602.8896</v>
       </c>
       <c r="G45" t="n">
-        <v>974315.4355483515</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2076,22 +1939,19 @@
         <v>153834.245</v>
       </c>
       <c r="G46" t="n">
-        <v>974315.4355483515</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2113,22 +1973,19 @@
         <v>896.4155</v>
       </c>
       <c r="G47" t="n">
-        <v>973419.0200483515</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2150,22 +2007,21 @@
         <v>68765.1283</v>
       </c>
       <c r="G48" t="n">
-        <v>973419.0200483515</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>7.19</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2187,22 +2043,21 @@
         <v>74128.24460000001</v>
       </c>
       <c r="G49" t="n">
-        <v>1047547.264648351</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>7.19</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2224,22 +2079,19 @@
         <v>7006.0193</v>
       </c>
       <c r="G50" t="n">
-        <v>1054553.283948351</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2261,22 +2113,19 @@
         <v>30000</v>
       </c>
       <c r="G51" t="n">
-        <v>1084553.283948351</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2298,22 +2147,19 @@
         <v>47345.0803</v>
       </c>
       <c r="G52" t="n">
-        <v>1037208.203648351</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2335,22 +2181,19 @@
         <v>115996.9843</v>
       </c>
       <c r="G53" t="n">
-        <v>921211.2193483514</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2372,22 +2215,19 @@
         <v>13826</v>
       </c>
       <c r="G54" t="n">
-        <v>907385.2193483514</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2409,22 +2249,21 @@
         <v>1400</v>
       </c>
       <c r="G55" t="n">
-        <v>908785.2193483514</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>7.23</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2446,22 +2285,19 @@
         <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>908775.2193483514</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2483,22 +2319,19 @@
         <v>70</v>
       </c>
       <c r="G57" t="n">
-        <v>908775.2193483514</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2520,22 +2353,19 @@
         <v>20</v>
       </c>
       <c r="G58" t="n">
-        <v>908775.2193483514</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2557,22 +2387,19 @@
         <v>60</v>
       </c>
       <c r="G59" t="n">
-        <v>908775.2193483514</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2594,22 +2421,19 @@
         <v>13277.944</v>
       </c>
       <c r="G60" t="n">
-        <v>922053.1633483514</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2631,22 +2455,19 @@
         <v>120</v>
       </c>
       <c r="G61" t="n">
-        <v>922053.1633483514</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2668,22 +2489,19 @@
         <v>67989.6731</v>
       </c>
       <c r="G62" t="n">
-        <v>922053.1633483514</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2705,22 +2523,19 @@
         <v>140</v>
       </c>
       <c r="G63" t="n">
-        <v>922193.1633483514</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2742,22 +2557,19 @@
         <v>10540</v>
       </c>
       <c r="G64" t="n">
-        <v>922193.1633483514</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2779,22 +2591,19 @@
         <v>70</v>
       </c>
       <c r="G65" t="n">
-        <v>922193.1633483514</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2816,22 +2625,19 @@
         <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>922193.1633483514</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2853,22 +2659,19 @@
         <v>70</v>
       </c>
       <c r="G67" t="n">
-        <v>922193.1633483514</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2890,22 +2693,19 @@
         <v>110</v>
       </c>
       <c r="G68" t="n">
-        <v>922083.1633483514</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2927,22 +2727,19 @@
         <v>11360</v>
       </c>
       <c r="G69" t="n">
-        <v>933443.1633483514</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2964,22 +2761,19 @@
         <v>418.5314</v>
       </c>
       <c r="G70" t="n">
-        <v>933024.6319483514</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3001,22 +2795,19 @@
         <v>171798.7905</v>
       </c>
       <c r="G71" t="n">
-        <v>761225.8414483514</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3038,22 +2829,21 @@
         <v>149591.8105</v>
       </c>
       <c r="G72" t="n">
-        <v>611634.0309483514</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>7.18</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3075,22 +2865,21 @@
         <v>45754.3765</v>
       </c>
       <c r="G73" t="n">
-        <v>611634.0309483514</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>7.17</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3112,22 +2901,21 @@
         <v>43466.6577</v>
       </c>
       <c r="G74" t="n">
-        <v>655100.6886483514</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>7.17</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3149,22 +2937,19 @@
         <v>41293.3248</v>
       </c>
       <c r="G75" t="n">
-        <v>655100.6886483514</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3186,22 +2971,21 @@
         <v>65711.41650000001</v>
       </c>
       <c r="G76" t="n">
-        <v>655100.6886483514</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3223,22 +3007,19 @@
         <v>11525.1471</v>
       </c>
       <c r="G77" t="n">
-        <v>666625.8357483513</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3260,22 +3041,19 @@
         <v>36370.4165</v>
       </c>
       <c r="G78" t="n">
-        <v>702996.2522483513</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3297,22 +3075,19 @@
         <v>83531.4743</v>
       </c>
       <c r="G79" t="n">
-        <v>786527.7265483513</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3334,22 +3109,21 @@
         <v>154186.9783</v>
       </c>
       <c r="G80" t="n">
-        <v>940714.7048483513</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>7.39</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3371,22 +3145,21 @@
         <v>31426.2422</v>
       </c>
       <c r="G81" t="n">
-        <v>909288.4626483513</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>7.41</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3408,22 +3181,21 @@
         <v>79477.75290000001</v>
       </c>
       <c r="G82" t="n">
-        <v>988766.2155483513</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>7.39</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3445,22 +3217,21 @@
         <v>706251.5220999999</v>
       </c>
       <c r="G83" t="n">
-        <v>1695017.737648351</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3482,22 +3253,21 @@
         <v>35403.8643</v>
       </c>
       <c r="G84" t="n">
-        <v>1659613.873348351</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>7.43</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3519,22 +3289,19 @@
         <v>16045.608</v>
       </c>
       <c r="G85" t="n">
-        <v>1659613.873348351</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3556,22 +3323,19 @@
         <v>194871.3007</v>
       </c>
       <c r="G86" t="n">
-        <v>1854485.174048351</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3593,22 +3357,19 @@
         <v>56904.5363</v>
       </c>
       <c r="G87" t="n">
-        <v>1797580.637748351</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3630,22 +3391,19 @@
         <v>274399.828</v>
       </c>
       <c r="G88" t="n">
-        <v>2071980.465748351</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3667,22 +3425,19 @@
         <v>256481.2336</v>
       </c>
       <c r="G89" t="n">
-        <v>2328461.699348351</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3704,22 +3459,19 @@
         <v>359240.9884</v>
       </c>
       <c r="G90" t="n">
-        <v>2687702.687748351</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3741,22 +3493,19 @@
         <v>13228.1553</v>
       </c>
       <c r="G91" t="n">
-        <v>2674474.532448351</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3778,22 +3527,19 @@
         <v>75361.0205</v>
       </c>
       <c r="G92" t="n">
-        <v>2749835.552948351</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3815,22 +3561,19 @@
         <v>34777.4225</v>
       </c>
       <c r="G93" t="n">
-        <v>2749835.552948351</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3852,22 +3595,19 @@
         <v>30391.4766</v>
       </c>
       <c r="G94" t="n">
-        <v>2780227.029548351</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3889,20 +3629,19 @@
         <v>373161.5658</v>
       </c>
       <c r="G95" t="n">
-        <v>3153388.595348351</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
       </c>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3924,18 +3663,19 @@
         <v>162243.7016</v>
       </c>
       <c r="G96" t="n">
-        <v>2991144.893748351</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3957,18 +3697,19 @@
         <v>245728.0021</v>
       </c>
       <c r="G97" t="n">
-        <v>3236872.895848352</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3990,18 +3731,19 @@
         <v>88554.7064</v>
       </c>
       <c r="G98" t="n">
-        <v>3148318.189448352</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4023,18 +3765,19 @@
         <v>145654.5804</v>
       </c>
       <c r="G99" t="n">
-        <v>3002663.609048352</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4056,18 +3799,19 @@
         <v>214308.19</v>
       </c>
       <c r="G100" t="n">
-        <v>2788355.419048352</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4089,18 +3833,19 @@
         <v>11</v>
       </c>
       <c r="G101" t="n">
-        <v>2788366.419048352</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4122,18 +3867,19 @@
         <v>387505.1576</v>
       </c>
       <c r="G102" t="n">
-        <v>2400861.261448352</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4155,18 +3901,19 @@
         <v>91.125</v>
       </c>
       <c r="G103" t="n">
-        <v>2400952.386448352</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4188,18 +3935,19 @@
         <v>4278.616</v>
       </c>
       <c r="G104" t="n">
-        <v>2400952.386448352</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4221,18 +3969,21 @@
         <v>25520.914</v>
       </c>
       <c r="G105" t="n">
-        <v>2426473.300448352</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>7.41</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4254,18 +4005,21 @@
         <v>27222.2017</v>
       </c>
       <c r="G106" t="n">
-        <v>2399251.098748351</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>7.45</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4287,18 +4041,21 @@
         <v>8597.108399999999</v>
       </c>
       <c r="G107" t="n">
-        <v>2407848.207148351</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4320,18 +4077,21 @@
         <v>3993.6069</v>
       </c>
       <c r="G108" t="n">
-        <v>2403854.600248351</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>7.47</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4353,18 +4113,21 @@
         <v>18183.627</v>
       </c>
       <c r="G109" t="n">
-        <v>2385670.973248351</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>7.39</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4386,18 +4149,21 @@
         <v>5123</v>
       </c>
       <c r="G110" t="n">
-        <v>2390793.973248351</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>7.23</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4419,18 +4185,21 @@
         <v>164813.9681</v>
       </c>
       <c r="G111" t="n">
-        <v>2225980.005148351</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>7.31</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4452,18 +4221,21 @@
         <v>77989.9474</v>
       </c>
       <c r="G112" t="n">
-        <v>2147990.057748351</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4485,18 +4257,21 @@
         <v>72071.7966</v>
       </c>
       <c r="G113" t="n">
-        <v>2147990.057748351</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>7.24</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4518,18 +4293,21 @@
         <v>138497.7892</v>
       </c>
       <c r="G114" t="n">
-        <v>2286487.846948351</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>7.24</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4551,18 +4329,21 @@
         <v>2702.7</v>
       </c>
       <c r="G115" t="n">
-        <v>2286487.846948351</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4584,18 +4365,19 @@
         <v>2702.7</v>
       </c>
       <c r="G116" t="n">
-        <v>2286487.846948351</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4617,18 +4399,21 @@
         <v>3962.9542</v>
       </c>
       <c r="G117" t="n">
-        <v>2290450.801148351</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4650,18 +4435,19 @@
         <v>23259.2475</v>
       </c>
       <c r="G118" t="n">
-        <v>2290450.801148351</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4683,18 +4469,21 @@
         <v>132299.1629</v>
       </c>
       <c r="G119" t="n">
-        <v>2290450.801148351</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>7.41</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4716,18 +4505,19 @@
         <v>39211.601</v>
       </c>
       <c r="G120" t="n">
-        <v>2251239.200148351</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4749,18 +4539,19 @@
         <v>18995.3633</v>
       </c>
       <c r="G121" t="n">
-        <v>2232243.836848352</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4782,18 +4573,21 @@
         <v>10427.3859</v>
       </c>
       <c r="G122" t="n">
-        <v>2242671.222748352</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>7.24</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4815,18 +4609,21 @@
         <v>7820.5395</v>
       </c>
       <c r="G123" t="n">
-        <v>2242671.222748352</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4848,18 +4645,21 @@
         <v>15123.3448</v>
       </c>
       <c r="G124" t="n">
-        <v>2257794.567548352</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4881,18 +4681,21 @@
         <v>235163.3783</v>
       </c>
       <c r="G125" t="n">
-        <v>2492957.945848352</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>7.39</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4914,18 +4717,19 @@
         <v>95073.5414</v>
       </c>
       <c r="G126" t="n">
-        <v>2492957.945848352</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4947,18 +4751,19 @@
         <v>470.5663</v>
       </c>
       <c r="G127" t="n">
-        <v>2492487.379548352</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4980,18 +4785,19 @@
         <v>13513.5</v>
       </c>
       <c r="G128" t="n">
-        <v>2506000.879548352</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5013,18 +4819,21 @@
         <v>72071.7966</v>
       </c>
       <c r="G129" t="n">
-        <v>2506000.879548352</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5046,18 +4855,21 @@
         <v>144143.5932</v>
       </c>
       <c r="G130" t="n">
-        <v>2506000.879548352</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5079,18 +4891,21 @@
         <v>4346.4615</v>
       </c>
       <c r="G131" t="n">
-        <v>2501654.418048352</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5112,18 +4927,21 @@
         <v>152764.096</v>
       </c>
       <c r="G132" t="n">
-        <v>2348890.322048352</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>7.33</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5145,18 +4963,21 @@
         <v>10998.331</v>
       </c>
       <c r="G133" t="n">
-        <v>2359888.653048351</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>7.32</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5178,18 +4999,21 @@
         <v>334539.2231</v>
       </c>
       <c r="G134" t="n">
-        <v>2694427.876148351</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5211,18 +5035,19 @@
         <v>14808.964</v>
       </c>
       <c r="G135" t="n">
-        <v>2709236.840148352</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5244,18 +5069,19 @@
         <v>14072.964</v>
       </c>
       <c r="G136" t="n">
-        <v>2723309.804148352</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5277,18 +5103,19 @@
         <v>368044.0951</v>
       </c>
       <c r="G137" t="n">
-        <v>3091353.899248352</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5310,18 +5137,19 @@
         <v>364115.0666</v>
       </c>
       <c r="G138" t="n">
-        <v>2727238.832648352</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5343,18 +5171,19 @@
         <v>4769</v>
       </c>
       <c r="G139" t="n">
-        <v>2727238.832648352</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5376,18 +5205,19 @@
         <v>80707.4666</v>
       </c>
       <c r="G140" t="n">
-        <v>2807946.299248352</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5409,18 +5239,19 @@
         <v>407418.7499</v>
       </c>
       <c r="G141" t="n">
-        <v>2807946.299248352</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5442,18 +5273,19 @@
         <v>82250.2834</v>
       </c>
       <c r="G142" t="n">
-        <v>2807946.299248352</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5475,18 +5307,19 @@
         <v>126569.7816</v>
       </c>
       <c r="G143" t="n">
-        <v>2807946.299248352</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5508,18 +5341,19 @@
         <v>228301.3981</v>
       </c>
       <c r="G144" t="n">
-        <v>2807946.299248352</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5541,18 +5375,21 @@
         <v>4040.2712</v>
       </c>
       <c r="G145" t="n">
-        <v>2803906.028048352</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5574,18 +5411,21 @@
         <v>112353.7237</v>
       </c>
       <c r="G146" t="n">
-        <v>2916259.751748352</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>7.49</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5607,18 +5447,19 @@
         <v>250.525</v>
       </c>
       <c r="G147" t="n">
-        <v>2916510.276748352</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5640,18 +5481,19 @@
         <v>8000</v>
       </c>
       <c r="G148" t="n">
-        <v>2916510.276748352</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5673,18 +5515,19 @@
         <v>8780.053099999999</v>
       </c>
       <c r="G149" t="n">
-        <v>2916510.276748352</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
